--- a/Успеваемость_С-ИП-21-1.xlsx
+++ b/Успеваемость_С-ИП-21-1.xlsx
@@ -24,19 +24,19 @@
     <t xml:space="preserve">Агеенков Константин Валерьевич</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вертянов Никита Васильевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Голиков Антон Александрович</t>
+  </si>
+  <si>
     <t>+</t>
   </si>
   <si>
-    <t xml:space="preserve">Вертянов Никита Васильевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Голиков Антон Александрович</t>
-  </si>
-  <si>
     <t xml:space="preserve">Гусев Илья Витальевич</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t xml:space="preserve">Добродон Илья Владиславович</t>
@@ -94,7 +94,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <color indexed="64"/>
       <sz val="11.000000"/>
     </font>
   </fonts>
@@ -712,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4">
-        <v>44938</v>
+        <v>44944</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -778,7 +777,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -797,10 +796,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -822,7 +821,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -888,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -932,7 +931,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -976,7 +975,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -998,7 +997,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1020,7 +1019,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1042,7 +1041,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1086,7 +1085,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1108,7 +1107,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1125,13 +1124,13 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00B300BD-00FC-4521-843D-008400B60087}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{007F005C-0060-449C-B328-009B008E001A}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -1148,7 +1147,7 @@
           <xm:sqref>C2:N19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{002D0028-005F-4DE0-86C0-00B3005D0092}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00150062-003D-45C1-8DAF-00A000180004}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -1165,7 +1164,7 @@
           <xm:sqref>C2:N19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00A20026-007E-4313-AB52-0059005E0071}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00870075-0032-4D2A-83B2-006800BD00C7}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>

--- a/Успеваемость_С-ИП-21-1.xlsx
+++ b/Успеваемость_С-ИП-21-1.xlsx
@@ -27,13 +27,13 @@
     <t>-</t>
   </si>
   <si>
+    <t>+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Вертянов Никита Васильевич</t>
   </si>
   <si>
     <t xml:space="preserve">Голиков Антон Александрович</t>
-  </si>
-  <si>
-    <t>+</t>
   </si>
   <si>
     <t xml:space="preserve">Гусев Илья Витальевич</t>
@@ -160,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -170,6 +170,9 @@
     </xf>
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="3" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -713,413 +716,489 @@
       <c r="C1" s="4">
         <v>44944</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="D1" s="4">
+        <v>44950</v>
+      </c>
+      <c r="E1" s="5">
+        <v>44951</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="6">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="B3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="B6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" ht="14.25">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-    </row>
-    <row r="6" ht="14.25">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" ht="14.25">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="B9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" ht="14.25">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-    </row>
-    <row r="9" ht="14.25">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="B11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" ht="14.25">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="B12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" ht="14.25">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="B13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" ht="14.25">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="B14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" ht="14.25">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="B15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" ht="14.25">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="B16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-    </row>
-    <row r="15" ht="14.25">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="B17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-    </row>
-    <row r="16" ht="14.25">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
+      <c r="B18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-    </row>
-    <row r="17" ht="14.25">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-    </row>
-    <row r="18" ht="14.25">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-    </row>
-    <row r="19" ht="14.25">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
+      <c r="C19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -1130,7 +1209,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{007F005C-0060-449C-B328-009B008E001A}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{006700F1-00DF-4196-B1FE-001800200044}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -1147,7 +1226,7 @@
           <xm:sqref>C2:N19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00150062-003D-45C1-8DAF-00A000180004}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{001800EE-00A3-4706-BE73-003D00B200B3}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -1164,7 +1243,7 @@
           <xm:sqref>C2:N19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00870075-0032-4D2A-83B2-006800BD00C7}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{008A0076-00F4-465D-9777-00940031002A}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>

--- a/Успеваемость_С-ИП-21-1.xlsx
+++ b/Успеваемость_С-ИП-21-1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26129"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="37" documentId="11_BCC555C15A3140FFF44C7A842745A5B57FD1477B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC826103-92BF-40A8-AEFC-0FD7086A7971}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="11_BCC555C15A3140FFF44C7A842745A5B57FD1477B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8EEF683-30C2-4800-9737-F2F34B121060}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="22">
   <si>
     <t>№</t>
   </si>
@@ -485,7 +485,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A1:B19"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -514,8 +514,12 @@
       <c r="F1" s="4">
         <v>44957</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="G1" s="4">
+        <v>44958</v>
+      </c>
+      <c r="H1" s="4">
+        <v>44958</v>
+      </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -542,8 +546,12 @@
       <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -570,8 +578,12 @@
       <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -598,8 +610,12 @@
       <c r="F4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -626,8 +642,12 @@
       <c r="F5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -654,8 +674,12 @@
       <c r="F6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -682,8 +706,12 @@
       <c r="F7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -710,8 +738,12 @@
       <c r="F8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -738,8 +770,12 @@
       <c r="F9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -766,8 +802,12 @@
       <c r="F10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -794,8 +834,12 @@
       <c r="F11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -822,8 +866,12 @@
       <c r="F12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -850,8 +898,12 @@
       <c r="F13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -878,8 +930,12 @@
       <c r="F14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -906,8 +962,12 @@
       <c r="F15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -934,8 +994,12 @@
       <c r="F16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="G16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -962,8 +1026,12 @@
       <c r="F17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -990,8 +1058,12 @@
       <c r="F18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="G18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -1018,8 +1090,12 @@
       <c r="F19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="G19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -1053,7 +1129,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1073,7 +1149,9 @@
       <c r="C1" s="11">
         <v>1</v>
       </c>
-      <c r="D1" s="11"/>
+      <c r="D1" s="11">
+        <v>2</v>
+      </c>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>

--- a/Успеваемость_С-ИП-21-1.xlsx
+++ b/Успеваемость_С-ИП-21-1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26205"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26207"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_A3A6A76699D448AAD42C74422749FAD0CE29CF70" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDF9506E-7564-4856-847C-B76CC1139474}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="11_A3A6A76699D448AAD42C74422749FAD0CE29CF70" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B32872B-3D9A-4383-A0F1-860A6688DEDD}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="22">
   <si>
     <t>№</t>
   </si>
@@ -463,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -505,7 +505,9 @@
       <c r="J1" s="3">
         <v>44965</v>
       </c>
-      <c r="K1" s="4"/>
+      <c r="K1" s="3">
+        <v>44971</v>
+      </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -541,7 +543,9 @@
       <c r="J2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="4"/>
+      <c r="K2" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -577,7 +581,9 @@
       <c r="J3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="4"/>
+      <c r="K3" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -613,7 +619,9 @@
       <c r="J4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -649,7 +657,9 @@
       <c r="J5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -685,7 +695,9 @@
       <c r="J6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -721,7 +733,9 @@
       <c r="J7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="4"/>
+      <c r="K7" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -757,7 +771,9 @@
       <c r="J8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="4"/>
+      <c r="K8" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -793,7 +809,9 @@
       <c r="J9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="4"/>
+      <c r="K9" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -829,7 +847,9 @@
       <c r="J10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="4"/>
+      <c r="K10" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -865,7 +885,9 @@
       <c r="J11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K11" s="4"/>
+      <c r="K11" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -901,7 +923,9 @@
       <c r="J12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="4"/>
+      <c r="K12" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -937,7 +961,9 @@
       <c r="J13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="4"/>
+      <c r="K13" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -973,7 +999,9 @@
       <c r="J14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="4"/>
+      <c r="K14" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -1009,7 +1037,9 @@
       <c r="J15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="4"/>
+      <c r="K15" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -1045,7 +1075,9 @@
       <c r="J16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K16" s="4"/>
+      <c r="K16" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -1081,7 +1113,9 @@
       <c r="J17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="4"/>
+      <c r="K17" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -1117,7 +1151,9 @@
       <c r="J18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="4"/>
+      <c r="K18" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -1153,7 +1189,9 @@
       <c r="J19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K19" s="4"/>
+      <c r="K19" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -1183,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1224,7 +1262,9 @@
       <c r="C2" s="8">
         <v>3</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="8">
+        <v>3</v>
+      </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -1342,7 +1382,9 @@
         <v>11</v>
       </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="D9" s="8">
+        <v>3</v>
+      </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -1482,7 +1524,9 @@
       <c r="C17" s="8">
         <v>10</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="8">
+        <v>6</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -1500,7 +1544,9 @@
       <c r="C18" s="8">
         <v>3</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="8">
+        <v>3</v>
+      </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>

--- a/Успеваемость_С-ИП-21-1.xlsx
+++ b/Успеваемость_С-ИП-21-1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26212"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="45" documentId="11_A3A6A76699D448AAD42C74422749FAD0CE29CF70" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B32872B-3D9A-4383-A0F1-860A6688DEDD}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="11_A3A6A76699D448AAD42C74422749FAD0CE29CF70" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59BCD4C0-3049-4920-BBCA-B0AAE732BF5E}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="25">
   <si>
     <t>№</t>
   </si>
@@ -88,6 +88,9 @@
     <t>Таракановский Владислав Евгеньевич</t>
   </si>
   <si>
+    <t>#</t>
+  </si>
+  <si>
     <t>Тихоненков Михаил Александрович</t>
   </si>
   <si>
@@ -95,6 +98,12 @@
   </si>
   <si>
     <t>Ястребков Вадим Андреевич</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>Virtual</t>
   </si>
 </sst>
 </file>
@@ -464,7 +473,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -508,7 +517,9 @@
       <c r="K1" s="3">
         <v>44971</v>
       </c>
-      <c r="L1" s="4"/>
+      <c r="L1" s="3">
+        <v>44972</v>
+      </c>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
     </row>
@@ -546,7 +557,9 @@
       <c r="K2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="4"/>
+      <c r="L2" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
@@ -584,7 +597,9 @@
       <c r="K3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="4"/>
+      <c r="L3" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
@@ -622,7 +637,9 @@
       <c r="K4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="4"/>
+      <c r="L4" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
@@ -660,7 +677,9 @@
       <c r="K5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="4"/>
+      <c r="L5" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
@@ -698,7 +717,9 @@
       <c r="K6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="4"/>
+      <c r="L6" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
@@ -736,7 +757,9 @@
       <c r="K7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="4"/>
+      <c r="L7" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
@@ -774,7 +797,9 @@
       <c r="K8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="4"/>
+      <c r="L8" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
@@ -812,7 +837,9 @@
       <c r="K9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="4"/>
+      <c r="L9" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
     </row>
@@ -850,7 +877,9 @@
       <c r="K10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="4"/>
+      <c r="L10" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
@@ -888,7 +917,9 @@
       <c r="K11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L11" s="4"/>
+      <c r="L11" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
@@ -926,7 +957,9 @@
       <c r="K12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="4"/>
+      <c r="L12" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
     </row>
@@ -964,7 +997,9 @@
       <c r="K13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="4"/>
+      <c r="L13" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
     </row>
@@ -1002,7 +1037,9 @@
       <c r="K14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="4"/>
+      <c r="L14" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
     </row>
@@ -1040,7 +1077,9 @@
       <c r="K15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="4"/>
+      <c r="L15" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
@@ -1076,9 +1115,11 @@
         <v>4</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L16" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
     </row>
@@ -1087,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>3</v>
@@ -1116,7 +1157,9 @@
       <c r="K17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L17" s="4"/>
+      <c r="L17" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
@@ -1125,7 +1168,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
@@ -1154,7 +1197,9 @@
       <c r="K18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="4"/>
+      <c r="L18" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
     </row>
@@ -1163,7 +1208,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>3</v>
@@ -1192,7 +1237,9 @@
       <c r="K19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L19" s="4"/>
+      <c r="L19" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
     </row>
@@ -1222,7 +1269,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1239,11 +1286,11 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8">
-        <v>1</v>
-      </c>
-      <c r="D1" s="8">
-        <v>2</v>
+      <c r="C1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
@@ -1366,7 +1413,9 @@
       <c r="C8" s="8">
         <v>10</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="8">
+        <v>3</v>
+      </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -1381,9 +1430,11 @@
       <c r="B9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="8">
+        <v>3</v>
+      </c>
       <c r="D9" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -1400,7 +1451,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1420,7 +1471,9 @@
       <c r="C11" s="8">
         <v>10</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="8">
+        <v>6</v>
+      </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -1469,7 +1522,9 @@
       <c r="B14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="8">
+        <v>6</v>
+      </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -1519,7 +1574,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="8">
         <v>10</v>
@@ -1539,13 +1594,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="8">
         <v>3</v>
       </c>
       <c r="D18" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -1559,7 +1614,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="8">
         <v>3</v>

--- a/Успеваемость_С-ИП-21-1.xlsx
+++ b/Успеваемость_С-ИП-21-1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26216"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="80" documentId="11_A3A6A76699D448AAD42C74422749FAD0CE29CF70" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59BCD4C0-3049-4920-BBCA-B0AAE732BF5E}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="11_A3A6A76699D448AAD42C74422749FAD0CE29CF70" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B99AEEA5-DF5A-40CE-8972-FDFC9365B626}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
+    <sheet name="Успеваемость" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="27">
   <si>
     <t>№</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Студент</t>
   </si>
   <si>
+    <t>Рейтинг</t>
+  </si>
+  <si>
     <t>Агеенков Константин Валерьевич</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>Гусев Илья Витальевич</t>
   </si>
   <si>
+    <t>#</t>
+  </si>
+  <si>
     <t>Добродон Илья Владиславович</t>
   </si>
   <si>
@@ -88,9 +94,6 @@
     <t>Таракановский Владислав Евгеньевич</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
     <t>Тихоненков Михаил Александрович</t>
   </si>
   <si>
@@ -104,13 +107,16 @@
   </si>
   <si>
     <t>Virtual</t>
+  </si>
+  <si>
+    <t>Итог</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +127,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -130,7 +142,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -181,11 +193,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -209,11 +236,35 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -470,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -483,7 +534,7 @@
     <col min="3" max="14" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15" ht="15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -520,743 +571,871 @@
       <c r="L1" s="3">
         <v>44972</v>
       </c>
-      <c r="M1" s="4"/>
+      <c r="M1" s="12">
+        <v>44978</v>
+      </c>
       <c r="N1" s="4"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="M2" s="4">
+        <v>10</v>
+      </c>
       <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="11">
+        <f>SUM(K2:N2)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="M3" s="4">
+        <v>-15</v>
+      </c>
       <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" s="11">
+        <f t="shared" ref="O3:O19" si="0">SUM(K3:N3)</f>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="M4" s="4">
+        <v>-15</v>
+      </c>
       <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" s="11">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="M5" s="4">
+        <v>10</v>
+      </c>
       <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="M6" s="4">
+        <v>-15</v>
+      </c>
       <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" s="11">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M7" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="M7" s="4">
+        <v>10</v>
+      </c>
       <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="M8" s="4">
+        <v>10</v>
+      </c>
       <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="M9" s="4">
+        <v>10</v>
+      </c>
       <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15">
       <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="M10" s="4">
+        <v>10</v>
+      </c>
       <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15">
       <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M11" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="M11" s="4">
+        <v>10</v>
+      </c>
       <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15">
       <c r="A12" s="8">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="M12" s="4">
+        <v>10</v>
+      </c>
       <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15">
       <c r="A13" s="8">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M13" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="M13" s="4">
+        <v>-15</v>
+      </c>
       <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" s="11">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15">
       <c r="A14" s="8">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="M14" s="4">
+        <v>-15</v>
+      </c>
       <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" s="11">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15">
       <c r="A15" s="8">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="M15" s="4">
+        <v>-15</v>
+      </c>
       <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15" s="11">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15">
       <c r="A16" s="8">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="M16" s="4">
+        <v>10</v>
+      </c>
       <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15">
       <c r="A17" s="8">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M17" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="M17" s="4">
+        <v>10</v>
+      </c>
       <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15">
       <c r="A18" s="8">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="M18" s="4">
+        <v>10</v>
+      </c>
       <c r="N18" s="4"/>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15">
       <c r="A19" s="8">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M19" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="M19" s="4">
+        <v>-15</v>
+      </c>
       <c r="N19" s="4"/>
+      <c r="O19" s="11">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:N19">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:N19">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"+"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:N19">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O19">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O19">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O19">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"#"</formula>
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
@@ -1266,10 +1445,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="K19" sqref="K1:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1279,7 +1458,7 @@
     <col min="3" max="10" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1287,44 +1466,51 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="J1" s="13"/>
+      <c r="K1" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="8">
         <v>3</v>
       </c>
       <c r="D2" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="J2" s="13"/>
+      <c r="K2" s="11">
+        <f>SUM(C2:J2)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="8">
         <v>3</v>
@@ -1335,14 +1521,18 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="J3" s="13"/>
+      <c r="K3" s="11">
+        <f t="shared" ref="K3:K19" si="0">SUM(C3:J3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="8">
         <v>3</v>
@@ -1353,14 +1543,18 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="J4" s="13"/>
+      <c r="K4" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -1369,14 +1563,18 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="J5" s="13"/>
+      <c r="K5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -1385,50 +1583,64 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="J6" s="13"/>
+      <c r="K6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="D7" s="8">
+        <v>3</v>
+      </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="J7" s="13"/>
+      <c r="K7" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" s="8">
         <v>10</v>
       </c>
       <c r="D8" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="J8" s="13"/>
+      <c r="K8" s="11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" s="8">
         <v>3</v>
@@ -1441,32 +1653,42 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="J9" s="13"/>
+      <c r="K9" s="11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" s="8">
         <v>6</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="8">
+        <v>6</v>
+      </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="J10" s="13"/>
+      <c r="K10" s="11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" s="8">
         <v>10</v>
@@ -1479,32 +1701,42 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="J11" s="13"/>
+      <c r="K11" s="11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="8">
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C12" s="8">
         <v>3</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="8">
+        <v>3</v>
+      </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="J12" s="13"/>
+      <c r="K12" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="8">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -1513,14 +1745,18 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="J13" s="13"/>
+      <c r="K13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="8">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="8">
         <v>6</v>
@@ -1531,14 +1767,18 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="J14" s="13"/>
+      <c r="K14" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="8">
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" s="8">
         <v>3</v>
@@ -1549,14 +1789,18 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="J15" s="13"/>
+      <c r="K15" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="8">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C16" s="8">
         <v>3</v>
@@ -1567,14 +1811,18 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="J16" s="13"/>
+      <c r="K16" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="8">
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" s="8">
         <v>10</v>
@@ -1587,17 +1835,21 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="J17" s="13"/>
+      <c r="K17" s="11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="8">
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" s="8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D18" s="8">
         <v>6</v>
@@ -1607,14 +1859,18 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="J18" s="13"/>
+      <c r="K18" s="11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="8">
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" s="8">
         <v>3</v>
@@ -1625,7 +1881,11 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Успеваемость_С-ИП-21-1.xlsx
+++ b/Успеваемость_С-ИП-21-1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26216"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="121" documentId="11_A3A6A76699D448AAD42C74422749FAD0CE29CF70" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B99AEEA5-DF5A-40CE-8972-FDFC9365B626}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="11_A3A6A76699D448AAD42C74422749FAD0CE29CF70" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56FFD76A-1E98-4CAA-BE9E-489354668594}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -574,7 +574,9 @@
       <c r="M1" s="12">
         <v>44978</v>
       </c>
-      <c r="N1" s="4"/>
+      <c r="N1" s="3">
+        <v>44979</v>
+      </c>
       <c r="O1" s="11" t="s">
         <v>2</v>
       </c>
@@ -619,10 +621,12 @@
       <c r="M2" s="4">
         <v>10</v>
       </c>
-      <c r="N2" s="4"/>
+      <c r="N2" s="4">
+        <v>-10</v>
+      </c>
       <c r="O2" s="11">
         <f>SUM(K2:N2)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15">
@@ -665,10 +669,12 @@
       <c r="M3" s="4">
         <v>-15</v>
       </c>
-      <c r="N3" s="4"/>
+      <c r="N3" s="4">
+        <v>15</v>
+      </c>
       <c r="O3" s="11">
         <f t="shared" ref="O3:O19" si="0">SUM(K3:N3)</f>
-        <v>-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15">
@@ -711,10 +717,12 @@
       <c r="M4" s="4">
         <v>-15</v>
       </c>
-      <c r="N4" s="4"/>
+      <c r="N4" s="4">
+        <v>15</v>
+      </c>
       <c r="O4" s="11">
         <f t="shared" si="0"/>
-        <v>-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15">
@@ -757,10 +765,12 @@
       <c r="M5" s="4">
         <v>10</v>
       </c>
-      <c r="N5" s="4"/>
+      <c r="N5" s="4">
+        <v>-10</v>
+      </c>
       <c r="O5" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15">
@@ -803,10 +813,12 @@
       <c r="M6" s="4">
         <v>-15</v>
       </c>
-      <c r="N6" s="4"/>
+      <c r="N6" s="4">
+        <v>15</v>
+      </c>
       <c r="O6" s="11">
         <f t="shared" si="0"/>
-        <v>-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15">
@@ -849,10 +861,12 @@
       <c r="M7" s="4">
         <v>10</v>
       </c>
-      <c r="N7" s="4"/>
+      <c r="N7" s="4">
+        <v>15</v>
+      </c>
       <c r="O7" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15">
@@ -895,10 +909,12 @@
       <c r="M8" s="4">
         <v>10</v>
       </c>
-      <c r="N8" s="4"/>
+      <c r="N8" s="4">
+        <v>15</v>
+      </c>
       <c r="O8" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15">
@@ -941,10 +957,12 @@
       <c r="M9" s="4">
         <v>10</v>
       </c>
-      <c r="N9" s="4"/>
+      <c r="N9" s="4">
+        <v>15</v>
+      </c>
       <c r="O9" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15">
@@ -987,10 +1005,12 @@
       <c r="M10" s="4">
         <v>10</v>
       </c>
-      <c r="N10" s="4"/>
+      <c r="N10" s="4">
+        <v>15</v>
+      </c>
       <c r="O10" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15">
@@ -1033,10 +1053,12 @@
       <c r="M11" s="4">
         <v>10</v>
       </c>
-      <c r="N11" s="4"/>
+      <c r="N11" s="4">
+        <v>15</v>
+      </c>
       <c r="O11" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15">
@@ -1079,10 +1101,12 @@
       <c r="M12" s="4">
         <v>10</v>
       </c>
-      <c r="N12" s="4"/>
+      <c r="N12" s="4">
+        <v>15</v>
+      </c>
       <c r="O12" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15">
@@ -1125,10 +1149,12 @@
       <c r="M13" s="4">
         <v>-15</v>
       </c>
-      <c r="N13" s="4"/>
+      <c r="N13" s="4">
+        <v>-10</v>
+      </c>
       <c r="O13" s="11">
         <f t="shared" si="0"/>
-        <v>-15</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15">
@@ -1171,10 +1197,12 @@
       <c r="M14" s="4">
         <v>-15</v>
       </c>
-      <c r="N14" s="4"/>
+      <c r="N14" s="4">
+        <v>-10</v>
+      </c>
       <c r="O14" s="11">
         <f t="shared" si="0"/>
-        <v>-15</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15">
@@ -1217,10 +1245,12 @@
       <c r="M15" s="4">
         <v>-15</v>
       </c>
-      <c r="N15" s="4"/>
+      <c r="N15" s="4">
+        <v>-10</v>
+      </c>
       <c r="O15" s="11">
         <f t="shared" si="0"/>
-        <v>-15</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15">
@@ -1263,10 +1293,12 @@
       <c r="M16" s="4">
         <v>10</v>
       </c>
-      <c r="N16" s="4"/>
+      <c r="N16" s="4">
+        <v>15</v>
+      </c>
       <c r="O16" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15">
@@ -1309,10 +1341,12 @@
       <c r="M17" s="4">
         <v>10</v>
       </c>
-      <c r="N17" s="4"/>
+      <c r="N17" s="4">
+        <v>15</v>
+      </c>
       <c r="O17" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15">
@@ -1355,10 +1389,12 @@
       <c r="M18" s="4">
         <v>10</v>
       </c>
-      <c r="N18" s="4"/>
+      <c r="N18" s="4">
+        <v>15</v>
+      </c>
       <c r="O18" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15">
@@ -1401,10 +1437,12 @@
       <c r="M19" s="4">
         <v>-15</v>
       </c>
-      <c r="N19" s="4"/>
+      <c r="N19" s="4">
+        <v>15</v>
+      </c>
       <c r="O19" s="11">
         <f t="shared" si="0"/>
-        <v>-15</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1447,7 +1485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K1:K19"/>
     </sheetView>
   </sheetViews>

--- a/Успеваемость_С-ИП-21-1.xlsx
+++ b/Успеваемость_С-ИП-21-1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26216"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26223"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="141" documentId="11_A3A6A76699D448AAD42C74422749FAD0CE29CF70" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56FFD76A-1E98-4CAA-BE9E-489354668594}"/>
+  <xr:revisionPtr revIDLastSave="184" documentId="11_A3A6A76699D448AAD42C74422749FAD0CE29CF70" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDF255A7-72D6-4304-A920-F45CB9FB254F}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="29">
   <si>
     <t>№</t>
   </si>
@@ -109,7 +109,13 @@
     <t>Virtual</t>
   </si>
   <si>
+    <t>Postman</t>
+  </si>
+  <si>
     <t>Итог</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -142,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -208,11 +214,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -243,6 +275,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -521,20 +565,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" bestFit="1"/>
     <col min="2" max="2" width="34.42578125" bestFit="1"/>
-    <col min="3" max="14" width="9.140625" style="1"/>
+    <col min="3" max="19" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15">
+    <row r="1" spans="1:20" ht="15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -574,14 +618,21 @@
       <c r="M1" s="12">
         <v>44978</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="14">
         <v>44979</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="17">
+        <v>44985</v>
+      </c>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15">
+    <row r="2" spans="1:20" ht="15">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -621,15 +672,22 @@
       <c r="M2" s="4">
         <v>10</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="15">
         <v>-10</v>
       </c>
       <c r="O2" s="11">
-        <f>SUM(K2:N2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15">
+        <v>10</v>
+      </c>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="16">
+        <f>SUM(M2:S2)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -667,17 +725,24 @@
         <v>4</v>
       </c>
       <c r="M3" s="4">
-        <v>-15</v>
-      </c>
-      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="15">
         <v>15</v>
       </c>
       <c r="O3" s="11">
-        <f t="shared" ref="O3:O19" si="0">SUM(K3:N3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15">
+        <v>10</v>
+      </c>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="16">
+        <f t="shared" ref="T3:T19" si="0">SUM(M3:S3)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -715,17 +780,24 @@
         <v>5</v>
       </c>
       <c r="M4" s="4">
-        <v>-15</v>
-      </c>
-      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="15">
         <v>15</v>
       </c>
       <c r="O4" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15">
+        <v>10</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -765,15 +837,22 @@
       <c r="M5" s="4">
         <v>10</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="15">
         <v>-10</v>
       </c>
       <c r="O5" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15">
+        <v>10</v>
+      </c>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -813,15 +892,22 @@
       <c r="M6" s="4">
         <v>-15</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="15">
         <v>15</v>
       </c>
       <c r="O6" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15">
+        <v>-15</v>
+      </c>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="16">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -861,15 +947,22 @@
       <c r="M7" s="4">
         <v>10</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="15">
         <v>15</v>
       </c>
       <c r="O7" s="11">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15">
+        <v>-15</v>
+      </c>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -909,15 +1002,22 @@
       <c r="M8" s="4">
         <v>10</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="15">
         <v>15</v>
       </c>
       <c r="O8" s="11">
+        <v>0</v>
+      </c>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="16">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15">
+    <row r="9" spans="1:20" ht="15">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -957,15 +1057,22 @@
       <c r="M9" s="4">
         <v>10</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="15">
         <v>15</v>
       </c>
       <c r="O9" s="11">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15">
+        <v>10</v>
+      </c>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="16">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1005,15 +1112,22 @@
       <c r="M10" s="4">
         <v>10</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="15">
         <v>15</v>
       </c>
       <c r="O10" s="11">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15">
+        <v>10</v>
+      </c>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="16">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1053,15 +1167,22 @@
       <c r="M11" s="4">
         <v>10</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="15">
         <v>15</v>
       </c>
       <c r="O11" s="11">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15">
+        <v>10</v>
+      </c>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="16">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1101,15 +1222,22 @@
       <c r="M12" s="4">
         <v>10</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="15">
         <v>15</v>
       </c>
       <c r="O12" s="11">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15">
+        <v>10</v>
+      </c>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="16">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1149,15 +1277,22 @@
       <c r="M13" s="4">
         <v>-15</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="15">
         <v>-10</v>
       </c>
       <c r="O13" s="11">
-        <f t="shared" si="0"/>
-        <v>-25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15">
+        <v>-15</v>
+      </c>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="16">
+        <f t="shared" si="0"/>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1197,15 +1332,22 @@
       <c r="M14" s="4">
         <v>-15</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="15">
         <v>-10</v>
       </c>
       <c r="O14" s="11">
-        <f t="shared" si="0"/>
-        <v>-25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15">
+        <v>-15</v>
+      </c>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="16">
+        <f t="shared" si="0"/>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1245,15 +1387,22 @@
       <c r="M15" s="4">
         <v>-15</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="15">
         <v>-10</v>
       </c>
       <c r="O15" s="11">
-        <f t="shared" si="0"/>
-        <v>-25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15">
+        <v>-15</v>
+      </c>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="16">
+        <f t="shared" si="0"/>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -1293,15 +1442,22 @@
       <c r="M16" s="4">
         <v>10</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="15">
         <v>15</v>
       </c>
       <c r="O16" s="11">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15">
+        <v>10</v>
+      </c>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="16">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="15">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -1341,15 +1497,22 @@
       <c r="M17" s="4">
         <v>10</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="15">
         <v>15</v>
       </c>
       <c r="O17" s="11">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15">
+        <v>10</v>
+      </c>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="16">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="15">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -1389,15 +1552,22 @@
       <c r="M18" s="4">
         <v>10</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="15">
         <v>15</v>
       </c>
       <c r="O18" s="11">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15">
+        <v>10</v>
+      </c>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="16">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="15">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -1437,12 +1607,19 @@
       <c r="M19" s="4">
         <v>-15</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="15">
         <v>15</v>
       </c>
       <c r="O19" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="16">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1461,17 +1638,17 @@
       <formula>"#"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O19">
+  <conditionalFormatting sqref="T2:T19">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O19">
+  <conditionalFormatting sqref="T2:T19">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O19">
+  <conditionalFormatting sqref="T2:T19">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -1483,10 +1660,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K1:K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1509,14 +1686,16 @@
       <c r="D1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="8"/>
+      <c r="E1" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="13"/>
       <c r="K1" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1530,7 +1709,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -1540,7 +1719,7 @@
       <c r="J2" s="13"/>
       <c r="K2" s="11">
         <f>SUM(C2:J2)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1554,7 +1733,9 @@
         <v>3</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="E3" s="8">
+        <v>3</v>
+      </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -1562,7 +1743,7 @@
       <c r="J3" s="13"/>
       <c r="K3" s="11">
         <f t="shared" ref="K3:K19" si="0">SUM(C3:J3)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1636,7 +1817,7 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -1646,7 +1827,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1660,7 +1841,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -1670,7 +1851,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="11">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1684,9 +1865,11 @@
         <v>3</v>
       </c>
       <c r="D9" s="8">
+        <v>10</v>
+      </c>
+      <c r="E9" s="8">
         <v>6</v>
       </c>
-      <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -1694,7 +1877,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="11">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1708,9 +1891,11 @@
         <v>6</v>
       </c>
       <c r="D10" s="8">
-        <v>6</v>
-      </c>
-      <c r="E10" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="E10" s="8">
+        <v>3</v>
+      </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -1718,7 +1903,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="11">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1732,9 +1917,11 @@
         <v>10</v>
       </c>
       <c r="D11" s="8">
+        <v>10</v>
+      </c>
+      <c r="E11" s="8">
         <v>6</v>
       </c>
-      <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -1742,7 +1929,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="11">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1756,9 +1943,11 @@
         <v>3</v>
       </c>
       <c r="D12" s="8">
+        <v>10</v>
+      </c>
+      <c r="E12" s="8">
         <v>3</v>
       </c>
-      <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -1766,7 +1955,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="11">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1866,7 +2055,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -1876,7 +2065,7 @@
       <c r="J17" s="13"/>
       <c r="K17" s="11">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1890,7 +2079,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -1900,7 +2089,7 @@
       <c r="J18" s="13"/>
       <c r="K18" s="11">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1925,6 +2114,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="22" spans="1:11">
+      <c r="F22" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>

--- a/Успеваемость_С-ИП-21-1.xlsx
+++ b/Успеваемость_С-ИП-21-1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26223"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26228"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="184" documentId="11_A3A6A76699D448AAD42C74422749FAD0CE29CF70" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDF255A7-72D6-4304-A920-F45CB9FB254F}"/>
+  <xr:revisionPtr revIDLastSave="212" documentId="11_A3A6A76699D448AAD42C74422749FAD0CE29CF70" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D6933F4-2283-4A11-9586-5C8D98165504}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="28">
   <si>
     <t>№</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>Итог</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
@@ -568,7 +565,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -624,7 +621,9 @@
       <c r="O1" s="17">
         <v>44985</v>
       </c>
-      <c r="P1" s="11"/>
+      <c r="P1" s="17">
+        <v>44986</v>
+      </c>
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
       <c r="S1" s="11"/>
@@ -678,13 +677,15 @@
       <c r="O2" s="11">
         <v>10</v>
       </c>
-      <c r="P2" s="11"/>
+      <c r="P2" s="11">
+        <v>15</v>
+      </c>
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
       <c r="S2" s="11"/>
       <c r="T2" s="16">
         <f>SUM(M2:S2)</f>
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15">
@@ -733,13 +734,15 @@
       <c r="O3" s="11">
         <v>10</v>
       </c>
-      <c r="P3" s="11"/>
+      <c r="P3" s="11">
+        <v>15</v>
+      </c>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
       <c r="T3" s="16">
         <f t="shared" ref="T3:T19" si="0">SUM(M3:S3)</f>
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15">
@@ -788,13 +791,15 @@
       <c r="O4" s="11">
         <v>10</v>
       </c>
-      <c r="P4" s="11"/>
+      <c r="P4" s="11">
+        <v>15</v>
+      </c>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
       <c r="T4" s="16">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15">
@@ -843,13 +848,15 @@
       <c r="O5" s="11">
         <v>10</v>
       </c>
-      <c r="P5" s="11"/>
+      <c r="P5" s="11">
+        <v>15</v>
+      </c>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
       <c r="T5" s="16">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15">
@@ -898,13 +905,15 @@
       <c r="O6" s="11">
         <v>-15</v>
       </c>
-      <c r="P6" s="11"/>
+      <c r="P6" s="11">
+        <v>-10</v>
+      </c>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
       <c r="T6" s="16">
         <f t="shared" si="0"/>
-        <v>-15</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15">
@@ -953,13 +962,15 @@
       <c r="O7" s="11">
         <v>-15</v>
       </c>
-      <c r="P7" s="11"/>
+      <c r="P7" s="11">
+        <v>15</v>
+      </c>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
       <c r="T7" s="16">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15">
@@ -1008,13 +1019,15 @@
       <c r="O8" s="11">
         <v>0</v>
       </c>
-      <c r="P8" s="11"/>
+      <c r="P8" s="11">
+        <v>-10</v>
+      </c>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
       <c r="T8" s="16">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15">
@@ -1063,13 +1076,15 @@
       <c r="O9" s="11">
         <v>10</v>
       </c>
-      <c r="P9" s="11"/>
+      <c r="P9" s="11">
+        <v>15</v>
+      </c>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
       <c r="T9" s="16">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15">
@@ -1118,13 +1133,15 @@
       <c r="O10" s="11">
         <v>10</v>
       </c>
-      <c r="P10" s="11"/>
+      <c r="P10" s="11">
+        <v>15</v>
+      </c>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
       <c r="T10" s="16">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15">
@@ -1173,13 +1190,15 @@
       <c r="O11" s="11">
         <v>10</v>
       </c>
-      <c r="P11" s="11"/>
+      <c r="P11" s="11">
+        <v>15</v>
+      </c>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
       <c r="T11" s="16">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15">
@@ -1228,13 +1247,15 @@
       <c r="O12" s="11">
         <v>10</v>
       </c>
-      <c r="P12" s="11"/>
+      <c r="P12" s="11">
+        <v>15</v>
+      </c>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
       <c r="T12" s="16">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="15">
@@ -1275,21 +1296,23 @@
         <v>5</v>
       </c>
       <c r="M13" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="N13" s="15">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="O13" s="11">
-        <v>-15</v>
-      </c>
-      <c r="P13" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="11">
+        <v>15</v>
+      </c>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
       <c r="T13" s="16">
         <f t="shared" si="0"/>
-        <v>-40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15">
@@ -1338,13 +1361,15 @@
       <c r="O14" s="11">
         <v>-15</v>
       </c>
-      <c r="P14" s="11"/>
+      <c r="P14" s="11">
+        <v>15</v>
+      </c>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
       <c r="T14" s="16">
         <f t="shared" si="0"/>
-        <v>-40</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15">
@@ -1393,13 +1418,15 @@
       <c r="O15" s="11">
         <v>-15</v>
       </c>
-      <c r="P15" s="11"/>
+      <c r="P15" s="11">
+        <v>-10</v>
+      </c>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
       <c r="T15" s="16">
         <f t="shared" si="0"/>
-        <v>-40</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="15">
@@ -1448,13 +1475,15 @@
       <c r="O16" s="11">
         <v>10</v>
       </c>
-      <c r="P16" s="11"/>
+      <c r="P16" s="11">
+        <v>15</v>
+      </c>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
       <c r="T16" s="16">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="15">
@@ -1503,13 +1532,15 @@
       <c r="O17" s="11">
         <v>10</v>
       </c>
-      <c r="P17" s="11"/>
+      <c r="P17" s="11">
+        <v>15</v>
+      </c>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
       <c r="T17" s="16">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="15">
@@ -1558,13 +1589,15 @@
       <c r="O18" s="11">
         <v>10</v>
       </c>
-      <c r="P18" s="11"/>
+      <c r="P18" s="11">
+        <v>15</v>
+      </c>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
       <c r="T18" s="16">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="15">
@@ -1613,13 +1646,15 @@
       <c r="O19" s="11">
         <v>10</v>
       </c>
-      <c r="P19" s="11"/>
+      <c r="P19" s="11">
+        <v>15</v>
+      </c>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
       <c r="T19" s="16">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1660,10 +1695,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1940,7 +1975,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D12" s="8">
         <v>10</v>
@@ -1955,7 +1990,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="11">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1965,9 +2000,13 @@
       <c r="B13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="8">
+        <v>6</v>
+      </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="E13" s="8">
+        <v>6</v>
+      </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -1975,7 +2014,7 @@
       <c r="J13" s="13"/>
       <c r="K13" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2114,11 +2153,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="F22" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>

--- a/Успеваемость_С-ИП-21-1.xlsx
+++ b/Успеваемость_С-ИП-21-1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26301"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="212" documentId="11_A3A6A76699D448AAD42C74422749FAD0CE29CF70" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D6933F4-2283-4A11-9586-5C8D98165504}"/>
+  <xr:revisionPtr revIDLastSave="244" documentId="11_A3A6A76699D448AAD42C74422749FAD0CE29CF70" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{840977D3-DDFC-4564-BF1F-439577947BB2}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="31">
   <si>
     <t>№</t>
   </si>
@@ -113,6 +113,15 @@
   </si>
   <si>
     <t>Итог</t>
+  </si>
+  <si>
+    <t>15-25</t>
+  </si>
+  <si>
+    <t>25-35</t>
+  </si>
+  <si>
+    <t>35-40</t>
   </si>
 </sst>
 </file>
@@ -565,7 +574,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -624,7 +633,9 @@
       <c r="P1" s="17">
         <v>44986</v>
       </c>
-      <c r="Q1" s="11"/>
+      <c r="Q1" s="17">
+        <v>44992</v>
+      </c>
       <c r="R1" s="11"/>
       <c r="S1" s="11"/>
       <c r="T1" s="16" t="s">
@@ -680,12 +691,14 @@
       <c r="P2" s="11">
         <v>15</v>
       </c>
-      <c r="Q2" s="11"/>
+      <c r="Q2" s="11">
+        <v>10</v>
+      </c>
       <c r="R2" s="11"/>
       <c r="S2" s="11"/>
       <c r="T2" s="16">
         <f>SUM(M2:S2)</f>
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15">
@@ -737,12 +750,14 @@
       <c r="P3" s="11">
         <v>15</v>
       </c>
-      <c r="Q3" s="11"/>
+      <c r="Q3" s="11">
+        <v>-15</v>
+      </c>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
       <c r="T3" s="16">
         <f t="shared" ref="T3:T19" si="0">SUM(M3:S3)</f>
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15">
@@ -794,12 +809,14 @@
       <c r="P4" s="11">
         <v>15</v>
       </c>
-      <c r="Q4" s="11"/>
+      <c r="Q4" s="11">
+        <v>10</v>
+      </c>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
       <c r="T4" s="16">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15">
@@ -851,12 +868,14 @@
       <c r="P5" s="11">
         <v>15</v>
       </c>
-      <c r="Q5" s="11"/>
+      <c r="Q5" s="11">
+        <v>-15</v>
+      </c>
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
       <c r="T5" s="16">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15">
@@ -908,12 +927,14 @@
       <c r="P6" s="11">
         <v>-10</v>
       </c>
-      <c r="Q6" s="11"/>
+      <c r="Q6" s="11">
+        <v>-15</v>
+      </c>
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
       <c r="T6" s="16">
         <f t="shared" si="0"/>
-        <v>-25</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15">
@@ -965,12 +986,14 @@
       <c r="P7" s="11">
         <v>15</v>
       </c>
-      <c r="Q7" s="11"/>
+      <c r="Q7" s="11">
+        <v>10</v>
+      </c>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
       <c r="T7" s="16">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15">
@@ -1022,12 +1045,14 @@
       <c r="P8" s="11">
         <v>-10</v>
       </c>
-      <c r="Q8" s="11"/>
+      <c r="Q8" s="11">
+        <v>10</v>
+      </c>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
       <c r="T8" s="16">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15">
@@ -1079,12 +1104,14 @@
       <c r="P9" s="11">
         <v>15</v>
       </c>
-      <c r="Q9" s="11"/>
+      <c r="Q9" s="11">
+        <v>-15</v>
+      </c>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
       <c r="T9" s="16">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15">
@@ -1136,12 +1163,14 @@
       <c r="P10" s="11">
         <v>15</v>
       </c>
-      <c r="Q10" s="11"/>
+      <c r="Q10" s="11">
+        <v>10</v>
+      </c>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
       <c r="T10" s="16">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15">
@@ -1193,12 +1222,14 @@
       <c r="P11" s="11">
         <v>15</v>
       </c>
-      <c r="Q11" s="11"/>
+      <c r="Q11" s="11">
+        <v>10</v>
+      </c>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
       <c r="T11" s="16">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15">
@@ -1250,12 +1281,14 @@
       <c r="P12" s="11">
         <v>15</v>
       </c>
-      <c r="Q12" s="11"/>
+      <c r="Q12" s="11">
+        <v>-15</v>
+      </c>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
       <c r="T12" s="16">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="15">
@@ -1307,12 +1340,14 @@
       <c r="P13" s="11">
         <v>15</v>
       </c>
-      <c r="Q13" s="11"/>
+      <c r="Q13" s="11">
+        <v>-15</v>
+      </c>
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
       <c r="T13" s="16">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15">
@@ -1364,7 +1399,9 @@
       <c r="P14" s="11">
         <v>15</v>
       </c>
-      <c r="Q14" s="11"/>
+      <c r="Q14" s="11">
+        <v>0</v>
+      </c>
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
       <c r="T14" s="16">
@@ -1421,12 +1458,14 @@
       <c r="P15" s="11">
         <v>-10</v>
       </c>
-      <c r="Q15" s="11"/>
+      <c r="Q15" s="11">
+        <v>-15</v>
+      </c>
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
       <c r="T15" s="16">
         <f t="shared" si="0"/>
-        <v>-50</v>
+        <v>-65</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="15">
@@ -1478,12 +1517,14 @@
       <c r="P16" s="11">
         <v>15</v>
       </c>
-      <c r="Q16" s="11"/>
+      <c r="Q16" s="11">
+        <v>10</v>
+      </c>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
       <c r="T16" s="16">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="15">
@@ -1535,12 +1576,14 @@
       <c r="P17" s="11">
         <v>15</v>
       </c>
-      <c r="Q17" s="11"/>
+      <c r="Q17" s="11">
+        <v>10</v>
+      </c>
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
       <c r="T17" s="16">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="15">
@@ -1592,12 +1635,14 @@
       <c r="P18" s="11">
         <v>15</v>
       </c>
-      <c r="Q18" s="11"/>
+      <c r="Q18" s="11">
+        <v>10</v>
+      </c>
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
       <c r="T18" s="16">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="15">
@@ -1649,12 +1694,14 @@
       <c r="P19" s="11">
         <v>15</v>
       </c>
-      <c r="Q19" s="11"/>
+      <c r="Q19" s="11">
+        <v>-15</v>
+      </c>
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
       <c r="T19" s="16">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1695,10 +1742,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1708,7 +1755,7 @@
     <col min="3" max="10" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:17">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1733,7 +1780,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:17">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1746,7 +1793,9 @@
       <c r="D2" s="8">
         <v>10</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="8">
+        <v>4</v>
+      </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -1754,10 +1803,10 @@
       <c r="J2" s="13"/>
       <c r="K2" s="11">
         <f>SUM(C2:J2)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1781,7 +1830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:17">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1792,7 +1841,9 @@
         <v>3</v>
       </c>
       <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="E4" s="8">
+        <v>5</v>
+      </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -1800,10 +1851,13 @@
       <c r="J4" s="13"/>
       <c r="K4" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>8</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1822,8 +1876,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="Q5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1842,8 +1899,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="Q6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1852,9 +1912,11 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8">
-        <v>5</v>
-      </c>
-      <c r="E7" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="E7" s="8">
+        <v>5</v>
+      </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -1862,10 +1924,10 @@
       <c r="J7" s="13"/>
       <c r="K7" s="11">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1878,7 +1940,9 @@
       <c r="D8" s="8">
         <v>10</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="8">
+        <v>5</v>
+      </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -1886,10 +1950,10 @@
       <c r="J8" s="13"/>
       <c r="K8" s="11">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1903,7 +1967,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -1912,10 +1976,10 @@
       <c r="J9" s="13"/>
       <c r="K9" s="11">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1929,7 +1993,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -1938,10 +2002,10 @@
       <c r="J10" s="13"/>
       <c r="K10" s="11">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1955,7 +2019,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -1964,10 +2028,10 @@
       <c r="J11" s="13"/>
       <c r="K11" s="11">
         <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1993,7 +2057,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:17">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -2005,7 +2069,7 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -2014,10 +2078,10 @@
       <c r="J13" s="13"/>
       <c r="K13" s="11">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -2039,7 +2103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:17">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -2061,7 +2125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:17">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -2120,7 +2184,9 @@
       <c r="D18" s="8">
         <v>10</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="8">
+        <v>5</v>
+      </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -2128,7 +2194,7 @@
       <c r="J18" s="13"/>
       <c r="K18" s="11">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:11">

--- a/Успеваемость_С-ИП-21-1.xlsx
+++ b/Успеваемость_С-ИП-21-1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26301"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26306"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="244" documentId="11_A3A6A76699D448AAD42C74422749FAD0CE29CF70" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{840977D3-DDFC-4564-BF1F-439577947BB2}"/>
+  <xr:revisionPtr revIDLastSave="266" documentId="11_A3A6A76699D448AAD42C74422749FAD0CE29CF70" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29D95DA5-6896-4C2F-A0DF-E5F6C1C6E7C8}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="34">
   <si>
     <t>№</t>
   </si>
@@ -122,6 +122,15 @@
   </si>
   <si>
     <t>35-40</t>
+  </si>
+  <si>
+    <t>10-20</t>
+  </si>
+  <si>
+    <t>20-25</t>
+  </si>
+  <si>
+    <t>25-30</t>
   </si>
 </sst>
 </file>
@@ -250,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -293,6 +302,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1742,10 +1754,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1865,8 +1877,12 @@
         <v>8</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="D5" s="8">
+        <v>10</v>
+      </c>
+      <c r="E5" s="8">
+        <v>5</v>
+      </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -1874,7 +1890,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q5" t="s">
         <v>29</v>
@@ -2133,10 +2149,14 @@
         <v>20</v>
       </c>
       <c r="C16" s="8">
-        <v>3</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="D16" s="8">
+        <v>10</v>
+      </c>
+      <c r="E16" s="8">
+        <v>5</v>
+      </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -2144,7 +2164,7 @@
       <c r="J16" s="13"/>
       <c r="K16" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2219,6 +2239,21 @@
         <v>3</v>
       </c>
     </row>
+    <row r="24" spans="1:11">
+      <c r="H24" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="H25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="H26" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>

--- a/Успеваемость_С-ИП-21-1.xlsx
+++ b/Успеваемость_С-ИП-21-1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26306"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26312"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="266" documentId="11_A3A6A76699D448AAD42C74422749FAD0CE29CF70" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29D95DA5-6896-4C2F-A0DF-E5F6C1C6E7C8}"/>
+  <xr:revisionPtr revIDLastSave="311" documentId="11_A3A6A76699D448AAD42C74422749FAD0CE29CF70" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9A66FD1-15FF-4AFB-A734-E057113F46EE}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="35">
   <si>
     <t>№</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Postman</t>
+  </si>
+  <si>
+    <t>Selenium</t>
   </si>
   <si>
     <t>Итог</t>
@@ -586,7 +589,10 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <pane xSplit="2" ySplit="19" topLeftCell="L20" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="U14" sqref="U14"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -648,8 +654,12 @@
       <c r="Q1" s="17">
         <v>44992</v>
       </c>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
+      <c r="R1" s="17">
+        <v>44999</v>
+      </c>
+      <c r="S1" s="17">
+        <v>45000</v>
+      </c>
       <c r="T1" s="16" t="s">
         <v>2</v>
       </c>
@@ -706,8 +716,12 @@
       <c r="Q2" s="11">
         <v>10</v>
       </c>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
+      <c r="R2" s="11">
+        <v>-15</v>
+      </c>
+      <c r="S2" s="11">
+        <v>15</v>
+      </c>
       <c r="T2" s="16">
         <f>SUM(M2:S2)</f>
         <v>35</v>
@@ -765,11 +779,15 @@
       <c r="Q3" s="11">
         <v>-15</v>
       </c>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
+      <c r="R3" s="11">
+        <v>10</v>
+      </c>
+      <c r="S3" s="11">
+        <v>15</v>
+      </c>
       <c r="T3" s="16">
         <f t="shared" ref="T3:T19" si="0">SUM(M3:S3)</f>
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15">
@@ -824,11 +842,15 @@
       <c r="Q4" s="11">
         <v>10</v>
       </c>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
+      <c r="R4" s="11">
+        <v>10</v>
+      </c>
+      <c r="S4" s="11">
+        <v>15</v>
+      </c>
       <c r="T4" s="16">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15">
@@ -883,8 +905,12 @@
       <c r="Q5" s="11">
         <v>-15</v>
       </c>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
+      <c r="R5" s="11">
+        <v>10</v>
+      </c>
+      <c r="S5" s="11">
+        <v>-10</v>
+      </c>
       <c r="T5" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -942,8 +968,12 @@
       <c r="Q6" s="11">
         <v>-15</v>
       </c>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
+      <c r="R6" s="11">
+        <v>-15</v>
+      </c>
+      <c r="S6" s="11">
+        <v>15</v>
+      </c>
       <c r="T6" s="16">
         <f t="shared" si="0"/>
         <v>-40</v>
@@ -1001,8 +1031,12 @@
       <c r="Q7" s="11">
         <v>10</v>
       </c>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
+      <c r="R7" s="11">
+        <v>10</v>
+      </c>
+      <c r="S7" s="11">
+        <v>-10</v>
+      </c>
       <c r="T7" s="16">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1060,11 +1094,15 @@
       <c r="Q8" s="11">
         <v>10</v>
       </c>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
+      <c r="R8" s="11">
+        <v>10</v>
+      </c>
+      <c r="S8" s="11">
+        <v>15</v>
+      </c>
       <c r="T8" s="16">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15">
@@ -1117,13 +1155,17 @@
         <v>15</v>
       </c>
       <c r="Q9" s="11">
-        <v>-15</v>
-      </c>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="11">
+        <v>0</v>
+      </c>
+      <c r="S9" s="11">
+        <v>0</v>
+      </c>
       <c r="T9" s="16">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15">
@@ -1178,11 +1220,15 @@
       <c r="Q10" s="11">
         <v>10</v>
       </c>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
+      <c r="R10" s="11">
+        <v>10</v>
+      </c>
+      <c r="S10" s="11">
+        <v>15</v>
+      </c>
       <c r="T10" s="16">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15">
@@ -1237,8 +1283,12 @@
       <c r="Q11" s="11">
         <v>10</v>
       </c>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
+      <c r="R11" s="11">
+        <v>-15</v>
+      </c>
+      <c r="S11" s="11">
+        <v>15</v>
+      </c>
       <c r="T11" s="16">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1296,11 +1346,15 @@
       <c r="Q12" s="11">
         <v>-15</v>
       </c>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
+      <c r="R12" s="11">
+        <v>10</v>
+      </c>
+      <c r="S12" s="11">
+        <v>15</v>
+      </c>
       <c r="T12" s="16">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="15">
@@ -1355,8 +1409,12 @@
       <c r="Q13" s="11">
         <v>-15</v>
       </c>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
+      <c r="R13" s="11">
+        <v>-15</v>
+      </c>
+      <c r="S13" s="11">
+        <v>15</v>
+      </c>
       <c r="T13" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1414,11 +1472,15 @@
       <c r="Q14" s="11">
         <v>0</v>
       </c>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
+      <c r="R14" s="11">
+        <v>10</v>
+      </c>
+      <c r="S14" s="11">
+        <v>15</v>
+      </c>
       <c r="T14" s="16">
         <f t="shared" si="0"/>
-        <v>-25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15">
@@ -1473,11 +1535,15 @@
       <c r="Q15" s="11">
         <v>-15</v>
       </c>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
+      <c r="R15" s="11">
+        <v>-15</v>
+      </c>
+      <c r="S15" s="11">
+        <v>-10</v>
+      </c>
       <c r="T15" s="16">
         <f t="shared" si="0"/>
-        <v>-65</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="15">
@@ -1532,8 +1598,12 @@
       <c r="Q16" s="11">
         <v>10</v>
       </c>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
+      <c r="R16" s="11">
+        <v>-15</v>
+      </c>
+      <c r="S16" s="11">
+        <v>15</v>
+      </c>
       <c r="T16" s="16">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1591,8 +1661,12 @@
       <c r="Q17" s="11">
         <v>10</v>
       </c>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
+      <c r="R17" s="11">
+        <v>-15</v>
+      </c>
+      <c r="S17" s="11">
+        <v>15</v>
+      </c>
       <c r="T17" s="16">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1650,8 +1724,12 @@
       <c r="Q18" s="11">
         <v>10</v>
       </c>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
+      <c r="R18" s="11">
+        <v>-15</v>
+      </c>
+      <c r="S18" s="11">
+        <v>15</v>
+      </c>
       <c r="T18" s="16">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1709,8 +1787,12 @@
       <c r="Q19" s="11">
         <v>-15</v>
       </c>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
+      <c r="R19" s="11">
+        <v>10</v>
+      </c>
+      <c r="S19" s="11">
+        <v>-10</v>
+      </c>
       <c r="T19" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1757,7 +1839,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1783,13 +1865,15 @@
       <c r="E1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="8"/>
+      <c r="F1" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="13"/>
       <c r="K1" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1828,7 +1912,9 @@
       <c r="C3" s="8">
         <v>3</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="8">
+        <v>10</v>
+      </c>
       <c r="E3" s="8">
         <v>3</v>
       </c>
@@ -1839,7 +1925,7 @@
       <c r="J3" s="13"/>
       <c r="K3" s="11">
         <f t="shared" ref="K3:K19" si="0">SUM(C3:J3)</f>
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1866,7 +1952,7 @@
         <v>8</v>
       </c>
       <c r="Q4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1893,7 +1979,7 @@
         <v>15</v>
       </c>
       <c r="Q5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1916,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1977,7 +2063,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D9" s="8">
         <v>10</v>
@@ -1992,7 +2078,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="11">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2241,17 +2327,17 @@
     </row>
     <row r="24" spans="1:11">
       <c r="H24" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="H25" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="H26" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Успеваемость_С-ИП-21-1.xlsx
+++ b/Успеваемость_С-ИП-21-1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" state="visible" r:id="rId1"/>
@@ -142,7 +142,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -207,30 +207,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -258,10 +243,11 @@
     <xf fontId="0" fillId="0" borderId="4" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="5" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="16" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -272,9 +258,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -863,1141 +846,1198 @@
       <c r="S1" s="7">
         <v>45000</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="8">
+        <v>45007</v>
+      </c>
+      <c r="V1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="15">
-      <c r="A2" s="9">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="11">
-        <v>10</v>
-      </c>
-      <c r="N2" s="12">
+      <c r="C2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="12">
+        <v>10</v>
+      </c>
+      <c r="N2" s="13">
         <v>-10</v>
       </c>
-      <c r="O2" s="13">
-        <v>10</v>
-      </c>
-      <c r="P2" s="13">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="13">
-        <v>10</v>
-      </c>
-      <c r="R2" s="13">
+      <c r="O2" s="10">
+        <v>10</v>
+      </c>
+      <c r="P2" s="10">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>10</v>
+      </c>
+      <c r="R2" s="10">
         <v>-15</v>
       </c>
-      <c r="S2" s="13">
-        <v>15</v>
-      </c>
-      <c r="T2" s="8">
-        <f t="shared" ref="T2:T19" si="0">SUM(M2:S2)</f>
+      <c r="S2" s="10">
+        <v>15</v>
+      </c>
+      <c r="T2">
+        <v>15</v>
+      </c>
+      <c r="V2" s="9">
+        <f>SUM(M2:S2)</f>
         <v>35</v>
       </c>
     </row>
     <row r="3" ht="15">
-      <c r="A3" s="9">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="11">
+      <c r="C3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="12">
         <v>0</v>
       </c>
-      <c r="N3" s="12">
-        <v>15</v>
-      </c>
-      <c r="O3" s="13">
-        <v>10</v>
-      </c>
-      <c r="P3" s="13">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="13">
+      <c r="N3" s="13">
+        <v>15</v>
+      </c>
+      <c r="O3" s="10">
+        <v>10</v>
+      </c>
+      <c r="P3" s="10">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="10">
         <v>-15</v>
       </c>
-      <c r="R3" s="13">
-        <v>10</v>
-      </c>
-      <c r="S3" s="13">
-        <v>15</v>
-      </c>
-      <c r="T3" s="8">
-        <f t="shared" si="0"/>
+      <c r="R3" s="10">
+        <v>10</v>
+      </c>
+      <c r="S3" s="10">
+        <v>15</v>
+      </c>
+      <c r="T3">
+        <v>-10</v>
+      </c>
+      <c r="V3" s="9">
+        <f>SUM(M3:S3)</f>
         <v>50</v>
       </c>
     </row>
     <row r="4" ht="15">
-      <c r="A4" s="9">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="11">
+      <c r="C4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="12">
         <v>0</v>
       </c>
-      <c r="N4" s="12">
-        <v>15</v>
-      </c>
-      <c r="O4" s="13">
-        <v>10</v>
-      </c>
-      <c r="P4" s="13">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="13">
-        <v>10</v>
-      </c>
-      <c r="R4" s="13">
-        <v>10</v>
-      </c>
-      <c r="S4" s="13">
-        <v>15</v>
-      </c>
-      <c r="T4" s="8">
-        <f t="shared" si="0"/>
+      <c r="N4" s="13">
+        <v>15</v>
+      </c>
+      <c r="O4" s="10">
+        <v>10</v>
+      </c>
+      <c r="P4" s="10">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>10</v>
+      </c>
+      <c r="R4" s="10">
+        <v>10</v>
+      </c>
+      <c r="S4" s="10">
+        <v>15</v>
+      </c>
+      <c r="T4">
+        <v>15</v>
+      </c>
+      <c r="V4" s="9">
+        <f>SUM(M4:S4)</f>
         <v>75</v>
       </c>
     </row>
     <row r="5" ht="15">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="11" t="s">
+      <c r="C5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="11">
-        <v>10</v>
-      </c>
-      <c r="N5" s="12">
+      <c r="M5" s="12">
+        <v>10</v>
+      </c>
+      <c r="N5" s="13">
         <v>-10</v>
       </c>
-      <c r="O5" s="13">
-        <v>10</v>
-      </c>
-      <c r="P5" s="13">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="13">
+      <c r="O5" s="10">
+        <v>10</v>
+      </c>
+      <c r="P5" s="10">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="10">
         <v>-15</v>
       </c>
-      <c r="R5" s="13">
-        <v>10</v>
-      </c>
-      <c r="S5" s="13">
+      <c r="R5" s="10">
+        <v>10</v>
+      </c>
+      <c r="S5" s="10">
         <v>-10</v>
       </c>
-      <c r="T5" s="8">
-        <f t="shared" si="0"/>
+      <c r="T5">
+        <v>-10</v>
+      </c>
+      <c r="V5" s="9">
+        <f>SUM(M5:S5)</f>
         <v>10</v>
       </c>
     </row>
     <row r="6" ht="15">
-      <c r="A6" s="9">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="11">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="12">
         <v>-15</v>
       </c>
-      <c r="N6" s="12">
-        <v>15</v>
-      </c>
-      <c r="O6" s="13">
+      <c r="N6" s="13">
+        <v>15</v>
+      </c>
+      <c r="O6" s="10">
         <v>-15</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="10">
         <v>-10</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="10">
         <v>-15</v>
       </c>
-      <c r="R6" s="13">
+      <c r="R6" s="10">
         <v>-15</v>
       </c>
-      <c r="S6" s="13">
-        <v>15</v>
-      </c>
-      <c r="T6" s="8">
-        <f t="shared" si="0"/>
+      <c r="S6" s="10">
+        <v>15</v>
+      </c>
+      <c r="T6">
+        <v>-10</v>
+      </c>
+      <c r="V6" s="9">
+        <f>SUM(M6:S6)</f>
         <v>-40</v>
       </c>
     </row>
     <row r="7" ht="15">
-      <c r="A7" s="9">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="11">
-        <v>10</v>
-      </c>
-      <c r="N7" s="12">
-        <v>15</v>
-      </c>
-      <c r="O7" s="13">
+      <c r="C7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="12">
+        <v>10</v>
+      </c>
+      <c r="N7" s="13">
+        <v>15</v>
+      </c>
+      <c r="O7" s="10">
         <v>-15</v>
       </c>
-      <c r="P7" s="13">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="13">
-        <v>10</v>
-      </c>
-      <c r="R7" s="13">
-        <v>10</v>
-      </c>
-      <c r="S7" s="13">
+      <c r="P7" s="10">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>10</v>
+      </c>
+      <c r="R7" s="10">
+        <v>10</v>
+      </c>
+      <c r="S7" s="10">
         <v>-10</v>
       </c>
-      <c r="T7" s="8">
-        <f t="shared" si="0"/>
+      <c r="T7">
+        <v>15</v>
+      </c>
+      <c r="V7" s="9">
+        <f>SUM(M7:S7)</f>
         <v>35</v>
       </c>
     </row>
     <row r="8" ht="15">
-      <c r="A8" s="9">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="M8" s="11">
-        <v>10</v>
-      </c>
-      <c r="N8" s="12">
-        <v>15</v>
-      </c>
-      <c r="O8" s="13">
+      <c r="C8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="12">
+        <v>10</v>
+      </c>
+      <c r="N8" s="13">
+        <v>15</v>
+      </c>
+      <c r="O8" s="10">
         <v>0</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="10">
         <v>-10</v>
       </c>
-      <c r="Q8" s="13">
-        <v>10</v>
-      </c>
-      <c r="R8" s="13">
-        <v>10</v>
-      </c>
-      <c r="S8" s="13">
-        <v>15</v>
-      </c>
-      <c r="T8" s="8">
-        <f t="shared" si="0"/>
+      <c r="Q8" s="10">
+        <v>10</v>
+      </c>
+      <c r="R8" s="10">
+        <v>10</v>
+      </c>
+      <c r="S8" s="10">
+        <v>15</v>
+      </c>
+      <c r="T8">
+        <v>-10</v>
+      </c>
+      <c r="V8" s="9">
+        <f>SUM(M8:S8)</f>
         <v>50</v>
       </c>
     </row>
     <row r="9" ht="15">
-      <c r="A9" s="9">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="11">
-        <v>10</v>
-      </c>
-      <c r="N9" s="12">
-        <v>15</v>
-      </c>
-      <c r="O9" s="13">
-        <v>10</v>
-      </c>
-      <c r="P9" s="13">
-        <v>15</v>
-      </c>
-      <c r="Q9" s="13">
+      <c r="C9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="12">
+        <v>10</v>
+      </c>
+      <c r="N9" s="13">
+        <v>15</v>
+      </c>
+      <c r="O9" s="10">
+        <v>10</v>
+      </c>
+      <c r="P9" s="10">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="10">
         <v>0</v>
       </c>
-      <c r="R9" s="13">
+      <c r="R9" s="10">
         <v>0</v>
       </c>
-      <c r="S9" s="13">
+      <c r="S9" s="10">
         <v>0</v>
       </c>
-      <c r="T9" s="8">
-        <f t="shared" si="0"/>
+      <c r="T9">
+        <v>15</v>
+      </c>
+      <c r="V9" s="9">
+        <f>SUM(M9:S9)</f>
         <v>50</v>
       </c>
     </row>
     <row r="10" ht="15">
-      <c r="A10" s="9">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="11">
-        <v>10</v>
-      </c>
-      <c r="N10" s="12">
-        <v>15</v>
-      </c>
-      <c r="O10" s="13">
-        <v>10</v>
-      </c>
-      <c r="P10" s="13">
-        <v>15</v>
-      </c>
-      <c r="Q10" s="13">
-        <v>10</v>
-      </c>
-      <c r="R10" s="13">
-        <v>10</v>
-      </c>
-      <c r="S10" s="13">
-        <v>15</v>
-      </c>
-      <c r="T10" s="8">
-        <f t="shared" si="0"/>
+      <c r="C10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="12">
+        <v>10</v>
+      </c>
+      <c r="N10" s="13">
+        <v>15</v>
+      </c>
+      <c r="O10" s="10">
+        <v>10</v>
+      </c>
+      <c r="P10" s="10">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>10</v>
+      </c>
+      <c r="R10" s="10">
+        <v>10</v>
+      </c>
+      <c r="S10" s="10">
+        <v>15</v>
+      </c>
+      <c r="T10">
+        <v>15</v>
+      </c>
+      <c r="V10" s="9">
+        <f>SUM(M10:S10)</f>
         <v>85</v>
       </c>
     </row>
     <row r="11" ht="15">
-      <c r="A11" s="9">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="11">
-        <v>10</v>
-      </c>
-      <c r="N11" s="12">
-        <v>15</v>
-      </c>
-      <c r="O11" s="13">
-        <v>10</v>
-      </c>
-      <c r="P11" s="13">
-        <v>15</v>
-      </c>
-      <c r="Q11" s="13">
-        <v>10</v>
-      </c>
-      <c r="R11" s="13">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="12">
+        <v>10</v>
+      </c>
+      <c r="N11" s="13">
+        <v>15</v>
+      </c>
+      <c r="O11" s="10">
+        <v>10</v>
+      </c>
+      <c r="P11" s="10">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>10</v>
+      </c>
+      <c r="R11" s="10">
         <v>-15</v>
       </c>
-      <c r="S11" s="13">
-        <v>15</v>
-      </c>
-      <c r="T11" s="8">
-        <f t="shared" si="0"/>
+      <c r="S11" s="10">
+        <v>15</v>
+      </c>
+      <c r="T11">
+        <v>15</v>
+      </c>
+      <c r="V11" s="9">
+        <f>SUM(M11:S11)</f>
         <v>60</v>
       </c>
     </row>
     <row r="12" ht="15">
-      <c r="A12" s="9">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="11" t="s">
+      <c r="C12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="11">
-        <v>10</v>
-      </c>
-      <c r="N12" s="12">
-        <v>15</v>
-      </c>
-      <c r="O12" s="13">
-        <v>10</v>
-      </c>
-      <c r="P12" s="13">
-        <v>15</v>
-      </c>
-      <c r="Q12" s="13">
+      <c r="M12" s="12">
+        <v>10</v>
+      </c>
+      <c r="N12" s="13">
+        <v>15</v>
+      </c>
+      <c r="O12" s="10">
+        <v>10</v>
+      </c>
+      <c r="P12" s="10">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="10">
         <v>-15</v>
       </c>
-      <c r="R12" s="13">
-        <v>10</v>
-      </c>
-      <c r="S12" s="13">
-        <v>15</v>
-      </c>
-      <c r="T12" s="8">
-        <f t="shared" si="0"/>
+      <c r="R12" s="10">
+        <v>10</v>
+      </c>
+      <c r="S12" s="10">
+        <v>15</v>
+      </c>
+      <c r="T12">
+        <v>-10</v>
+      </c>
+      <c r="V12" s="9">
+        <f>SUM(M12:S12)</f>
         <v>60</v>
       </c>
     </row>
     <row r="13" ht="15">
-      <c r="A13" s="9">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="M13" s="11">
+      <c r="C13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" s="12">
         <v>0</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="13">
         <v>0</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="10">
         <v>0</v>
       </c>
-      <c r="P13" s="13">
-        <v>15</v>
-      </c>
-      <c r="Q13" s="13">
+      <c r="P13" s="10">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="10">
         <v>-15</v>
       </c>
-      <c r="R13" s="13">
+      <c r="R13" s="10">
         <v>-15</v>
       </c>
-      <c r="S13" s="13">
-        <v>15</v>
-      </c>
-      <c r="T13" s="8">
-        <f t="shared" si="0"/>
+      <c r="S13" s="10">
+        <v>15</v>
+      </c>
+      <c r="T13">
+        <v>-10</v>
+      </c>
+      <c r="V13" s="9">
+        <f>SUM(M13:S13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" ht="15">
-      <c r="A14" s="9">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="11">
+      <c r="C14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="12">
         <v>-15</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="13">
         <v>-10</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="10">
         <v>-15</v>
       </c>
-      <c r="P14" s="13">
-        <v>15</v>
-      </c>
-      <c r="Q14" s="13">
+      <c r="P14" s="10">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="10">
         <v>0</v>
       </c>
-      <c r="R14" s="13">
-        <v>10</v>
-      </c>
-      <c r="S14" s="13">
-        <v>15</v>
-      </c>
-      <c r="T14" s="8">
-        <f t="shared" si="0"/>
+      <c r="R14" s="10">
+        <v>10</v>
+      </c>
+      <c r="S14" s="10">
+        <v>15</v>
+      </c>
+      <c r="T14">
+        <v>15</v>
+      </c>
+      <c r="V14" s="9">
+        <f>SUM(M14:S14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" ht="15">
-      <c r="A15" s="9">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="11">
+      <c r="C15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="12">
         <v>-15</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="13">
         <v>-10</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="10">
         <v>-15</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="10">
         <v>-10</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q15" s="10">
         <v>-15</v>
       </c>
-      <c r="R15" s="13">
+      <c r="R15" s="10">
         <v>-15</v>
       </c>
-      <c r="S15" s="13">
+      <c r="S15" s="10">
         <v>-10</v>
       </c>
-      <c r="T15" s="8">
-        <f t="shared" si="0"/>
+      <c r="T15">
+        <v>-10</v>
+      </c>
+      <c r="V15" s="9">
+        <f>SUM(M15:S15)</f>
         <v>-90</v>
       </c>
     </row>
     <row r="16" ht="15">
-      <c r="A16" s="9">
-        <v>15</v>
-      </c>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="K16" s="11" t="s">
+      <c r="C16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="11">
-        <v>10</v>
-      </c>
-      <c r="N16" s="12">
-        <v>15</v>
-      </c>
-      <c r="O16" s="13">
-        <v>10</v>
-      </c>
-      <c r="P16" s="13">
-        <v>15</v>
-      </c>
-      <c r="Q16" s="13">
-        <v>10</v>
-      </c>
-      <c r="R16" s="13">
+      <c r="M16" s="12">
+        <v>10</v>
+      </c>
+      <c r="N16" s="13">
+        <v>15</v>
+      </c>
+      <c r="O16" s="10">
+        <v>10</v>
+      </c>
+      <c r="P16" s="10">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>10</v>
+      </c>
+      <c r="R16" s="10">
         <v>-15</v>
       </c>
-      <c r="S16" s="13">
-        <v>15</v>
-      </c>
-      <c r="T16" s="8">
-        <f t="shared" si="0"/>
+      <c r="S16" s="10">
+        <v>15</v>
+      </c>
+      <c r="T16">
+        <v>15</v>
+      </c>
+      <c r="V16" s="9">
+        <f>SUM(M16:S16)</f>
         <v>60</v>
       </c>
     </row>
     <row r="17" ht="15">
-      <c r="A17" s="9">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="11">
-        <v>10</v>
-      </c>
-      <c r="N17" s="12">
-        <v>15</v>
-      </c>
-      <c r="O17" s="13">
-        <v>10</v>
-      </c>
-      <c r="P17" s="13">
-        <v>15</v>
-      </c>
-      <c r="Q17" s="13">
-        <v>10</v>
-      </c>
-      <c r="R17" s="13">
+      <c r="C17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="12">
+        <v>10</v>
+      </c>
+      <c r="N17" s="13">
+        <v>15</v>
+      </c>
+      <c r="O17" s="10">
+        <v>10</v>
+      </c>
+      <c r="P17" s="10">
+        <v>15</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>10</v>
+      </c>
+      <c r="R17" s="10">
         <v>-15</v>
       </c>
-      <c r="S17" s="13">
-        <v>15</v>
-      </c>
-      <c r="T17" s="8">
-        <f t="shared" si="0"/>
+      <c r="S17" s="10">
+        <v>15</v>
+      </c>
+      <c r="T17">
+        <v>15</v>
+      </c>
+      <c r="V17" s="9">
+        <f>SUM(M17:S17)</f>
         <v>60</v>
       </c>
     </row>
     <row r="18" ht="15">
-      <c r="A18" s="9">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="11">
-        <v>10</v>
-      </c>
-      <c r="N18" s="12">
-        <v>15</v>
-      </c>
-      <c r="O18" s="13">
-        <v>10</v>
-      </c>
-      <c r="P18" s="13">
-        <v>15</v>
-      </c>
-      <c r="Q18" s="13">
-        <v>10</v>
-      </c>
-      <c r="R18" s="13">
+      <c r="C18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="12">
+        <v>10</v>
+      </c>
+      <c r="N18" s="13">
+        <v>15</v>
+      </c>
+      <c r="O18" s="10">
+        <v>10</v>
+      </c>
+      <c r="P18" s="10">
+        <v>15</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>10</v>
+      </c>
+      <c r="R18" s="10">
         <v>-15</v>
       </c>
-      <c r="S18" s="13">
-        <v>15</v>
-      </c>
-      <c r="T18" s="8">
-        <f t="shared" si="0"/>
+      <c r="S18" s="10">
+        <v>15</v>
+      </c>
+      <c r="T18">
+        <v>15</v>
+      </c>
+      <c r="V18" s="9">
+        <f>SUM(M18:S18)</f>
         <v>60</v>
       </c>
     </row>
     <row r="19" ht="15">
-      <c r="A19" s="9">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="L19" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="M19" s="11">
+      <c r="C19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M19" s="12">
         <v>-15</v>
       </c>
-      <c r="N19" s="12">
-        <v>15</v>
-      </c>
-      <c r="O19" s="13">
-        <v>10</v>
-      </c>
-      <c r="P19" s="13">
-        <v>15</v>
-      </c>
-      <c r="Q19" s="13">
+      <c r="N19" s="13">
+        <v>15</v>
+      </c>
+      <c r="O19" s="10">
+        <v>10</v>
+      </c>
+      <c r="P19" s="10">
+        <v>15</v>
+      </c>
+      <c r="Q19" s="10">
         <v>-15</v>
       </c>
-      <c r="R19" s="13">
-        <v>10</v>
-      </c>
-      <c r="S19" s="13">
+      <c r="R19" s="10">
+        <v>10</v>
+      </c>
+      <c r="S19" s="10">
         <v>-10</v>
       </c>
-      <c r="T19" s="8">
-        <f t="shared" si="0"/>
+      <c r="T19">
+        <v>15</v>
+      </c>
+      <c r="V19" s="9">
+        <f>SUM(M19:S19)</f>
         <v>10</v>
       </c>
     </row>
@@ -2010,7 +2050,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{000F00F7-0077-410A-B6BF-000D008700F6}">
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{00F500BD-0021-44CA-833B-00250021009A}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -2027,7 +2067,7 @@
           <xm:sqref>C2:N19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{00840040-00D5-4326-AFCD-00480017002C}">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{0071009A-00FF-4447-BAA4-00C300820056}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -2044,7 +2084,7 @@
           <xm:sqref>C2:N19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{003C001F-00C9-4D5D-B2B8-007B005B005C}">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{0068007B-0079-4208-AE08-002400D30024}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -2061,7 +2101,7 @@
           <xm:sqref>C2:N19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{004F000C-00A9-4611-8EDF-005A004100B8}">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{008500FB-00D9-4972-8B1A-00E200B600F7}">
             <xm:f>0</xm:f>
             <x14:dxf>
               <font>
@@ -2069,10 +2109,10 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>T2:T19</xm:sqref>
+          <xm:sqref>V2:V19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="lessThan" id="{00AC00E1-0002-46E8-AD39-00C000AC0073}">
+          <x14:cfRule type="cellIs" priority="2" operator="lessThan" id="{00CB0099-0021-4FB1-81A1-003A00420049}">
             <xm:f>0</xm:f>
             <x14:dxf>
               <font>
@@ -2080,10 +2120,10 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>T2:T19</xm:sqref>
+          <xm:sqref>V2:V19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{0093005F-0015-4B4E-80C7-002B00F20047}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{000E0039-0084-4233-83F9-008D00800096}">
             <xm:f>0</xm:f>
             <x14:dxf>
               <font>
@@ -2091,7 +2131,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>T2:T19</xm:sqref>
+          <xm:sqref>V2:V19</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2120,99 +2160,99 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
       <c r="J1" s="15"/>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="10">
         <v>3</v>
       </c>
-      <c r="D2" s="9">
-        <v>10</v>
-      </c>
-      <c r="E2" s="9">
-        <v>4</v>
-      </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="D2" s="10">
+        <v>10</v>
+      </c>
+      <c r="E2" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="13">
-        <f t="shared" ref="K2:K19" si="1">SUM(C2:J2)</f>
+      <c r="K2" s="10">
+        <f t="shared" ref="K2:K19" si="0">SUM(C2:J2)</f>
         <v>17</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="10">
         <v>3</v>
       </c>
-      <c r="D3" s="9">
-        <v>10</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="D3" s="10">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10">
         <v>3</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="13">
-        <f t="shared" si="1"/>
+      <c r="K3" s="10">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="10">
         <v>3</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9">
-        <v>5</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
       <c r="J4" s="15"/>
-      <c r="K4" s="13">
-        <f t="shared" si="1"/>
+      <c r="K4" s="10">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="Q4" t="s">
@@ -2220,26 +2260,26 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9">
-        <v>10</v>
-      </c>
-      <c r="E5" s="9">
-        <v>5</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10">
+        <v>10</v>
+      </c>
+      <c r="E5" s="10">
+        <v>5</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
       <c r="J5" s="15"/>
-      <c r="K5" s="13">
-        <f t="shared" si="1"/>
+      <c r="K5" s="10">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="Q5" t="s">
@@ -2247,22 +2287,22 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
       <c r="J6" s="15"/>
-      <c r="K6" s="13">
-        <f t="shared" si="1"/>
+      <c r="K6" s="10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q6" t="s">
@@ -2270,324 +2310,324 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9">
-        <v>10</v>
-      </c>
-      <c r="E7" s="9">
-        <v>5</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10">
+        <v>10</v>
+      </c>
+      <c r="E7" s="10">
+        <v>5</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="13">
-        <f t="shared" si="1"/>
+      <c r="K7" s="10">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="9">
-        <v>10</v>
-      </c>
-      <c r="D8" s="9">
-        <v>10</v>
-      </c>
-      <c r="E8" s="9">
-        <v>5</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="C8" s="10">
+        <v>10</v>
+      </c>
+      <c r="D8" s="10">
+        <v>10</v>
+      </c>
+      <c r="E8" s="10">
+        <v>5</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="13">
-        <f t="shared" si="1"/>
+      <c r="K8" s="10">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="10">
         <v>6</v>
       </c>
-      <c r="D9" s="9">
-        <v>10</v>
-      </c>
-      <c r="E9" s="9">
-        <v>5</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="D9" s="10">
+        <v>10</v>
+      </c>
+      <c r="E9" s="10">
+        <v>5</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="13">
-        <f t="shared" si="1"/>
+      <c r="K9" s="10">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="9">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="10">
         <v>6</v>
       </c>
-      <c r="D10" s="9">
-        <v>10</v>
-      </c>
-      <c r="E10" s="9">
-        <v>5</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="D10" s="10">
+        <v>10</v>
+      </c>
+      <c r="E10" s="10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="13">
-        <f t="shared" si="1"/>
+      <c r="K10" s="10">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="9">
-        <v>10</v>
-      </c>
-      <c r="D11" s="9">
-        <v>10</v>
-      </c>
-      <c r="E11" s="9">
-        <v>5</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="C11" s="10">
+        <v>10</v>
+      </c>
+      <c r="D11" s="10">
+        <v>10</v>
+      </c>
+      <c r="E11" s="10">
+        <v>5</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="13">
-        <f t="shared" si="1"/>
+      <c r="K11" s="10">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="10">
         <v>6</v>
       </c>
-      <c r="D12" s="9">
-        <v>10</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="D12" s="10">
+        <v>10</v>
+      </c>
+      <c r="E12" s="10">
         <v>3</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
       <c r="J12" s="15"/>
-      <c r="K12" s="13">
-        <f t="shared" si="1"/>
+      <c r="K12" s="10">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="10">
         <v>6</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9">
-        <v>5</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10">
+        <v>5</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
       <c r="J13" s="15"/>
-      <c r="K13" s="13">
-        <f t="shared" si="1"/>
+      <c r="K13" s="10">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="10">
         <v>6</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
       <c r="J14" s="15"/>
-      <c r="K14" s="13">
-        <f t="shared" si="1"/>
+      <c r="K14" s="10">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="10">
         <v>3</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
       <c r="J15" s="15"/>
-      <c r="K15" s="13">
-        <f t="shared" si="1"/>
+      <c r="K15" s="10">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="9">
-        <v>10</v>
-      </c>
-      <c r="D16" s="9">
-        <v>10</v>
-      </c>
-      <c r="E16" s="9">
-        <v>5</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="C16" s="10">
+        <v>10</v>
+      </c>
+      <c r="D16" s="10">
+        <v>10</v>
+      </c>
+      <c r="E16" s="10">
+        <v>5</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
       <c r="J16" s="15"/>
-      <c r="K16" s="13">
-        <f t="shared" si="1"/>
+      <c r="K16" s="10">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="9">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="9">
-        <v>10</v>
-      </c>
-      <c r="D17" s="9">
-        <v>10</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="C17" s="10">
+        <v>10</v>
+      </c>
+      <c r="D17" s="10">
+        <v>10</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
       <c r="J17" s="15"/>
-      <c r="K17" s="13">
-        <f t="shared" si="1"/>
+      <c r="K17" s="10">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="9">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="9">
-        <v>10</v>
-      </c>
-      <c r="D18" s="9">
-        <v>10</v>
-      </c>
-      <c r="E18" s="9">
-        <v>5</v>
-      </c>
-      <c r="F18" s="9">
-        <v>10</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="C18" s="10">
+        <v>10</v>
+      </c>
+      <c r="D18" s="10">
+        <v>10</v>
+      </c>
+      <c r="E18" s="10">
+        <v>5</v>
+      </c>
+      <c r="F18" s="10">
+        <v>10</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
       <c r="J18" s="15"/>
-      <c r="K18" s="13">
-        <f t="shared" si="1"/>
+      <c r="K18" s="10">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="9">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="10">
         <v>3</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
       <c r="J19" s="15"/>
-      <c r="K19" s="13">
-        <f t="shared" si="1"/>
+      <c r="K19" s="10">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>

--- a/Успеваемость_С-ИП-21-1.xlsx
+++ b/Успеваемость_С-ИП-21-1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" state="visible" r:id="rId1"/>
@@ -841,10 +841,13 @@
       <c r="T1" s="8">
         <v>45007</v>
       </c>
-      <c r="U1" s="9">
+      <c r="U1" s="8">
         <v>45013</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="9">
+        <v>45014</v>
+      </c>
+      <c r="Z1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -912,7 +915,10 @@
       <c r="U2">
         <v>-15</v>
       </c>
-      <c r="V2" s="10">
+      <c r="V2">
+        <v>15</v>
+      </c>
+      <c r="Z2" s="10">
         <f>SUM(M2:U2)</f>
         <v>35</v>
       </c>
@@ -981,7 +987,10 @@
       <c r="U3">
         <v>10</v>
       </c>
-      <c r="V3" s="10">
+      <c r="V3">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="10">
         <f>SUM(M3:U3)</f>
         <v>50</v>
       </c>
@@ -1050,7 +1059,10 @@
       <c r="U4">
         <v>10</v>
       </c>
-      <c r="V4" s="10">
+      <c r="V4">
+        <v>15</v>
+      </c>
+      <c r="Z4" s="10">
         <f>SUM(M4:U4)</f>
         <v>100</v>
       </c>
@@ -1119,7 +1131,10 @@
       <c r="U5">
         <v>10</v>
       </c>
-      <c r="V5" s="10">
+      <c r="V5">
+        <v>-10</v>
+      </c>
+      <c r="Z5" s="10">
         <f>SUM(M5:U5)</f>
         <v>10</v>
       </c>
@@ -1188,7 +1203,10 @@
       <c r="U6">
         <v>-15</v>
       </c>
-      <c r="V6" s="10">
+      <c r="V6">
+        <v>-10</v>
+      </c>
+      <c r="Z6" s="10">
         <f>SUM(M6:U6)</f>
         <v>-65</v>
       </c>
@@ -1257,7 +1275,10 @@
       <c r="U7">
         <v>10</v>
       </c>
-      <c r="V7" s="10">
+      <c r="V7">
+        <v>-10</v>
+      </c>
+      <c r="Z7" s="10">
         <f>SUM(M7:U7)</f>
         <v>60</v>
       </c>
@@ -1326,7 +1347,10 @@
       <c r="U8">
         <v>10</v>
       </c>
-      <c r="V8" s="10">
+      <c r="V8">
+        <v>-10</v>
+      </c>
+      <c r="Z8" s="10">
         <f>SUM(M8:U8)</f>
         <v>50</v>
       </c>
@@ -1395,7 +1419,10 @@
       <c r="U9">
         <v>10</v>
       </c>
-      <c r="V9" s="10">
+      <c r="V9">
+        <v>15</v>
+      </c>
+      <c r="Z9" s="10">
         <f>SUM(M9:U9)</f>
         <v>75</v>
       </c>
@@ -1464,7 +1491,10 @@
       <c r="U10">
         <v>10</v>
       </c>
-      <c r="V10" s="10">
+      <c r="V10">
+        <v>-10</v>
+      </c>
+      <c r="Z10" s="10">
         <f>SUM(M10:U10)</f>
         <v>110</v>
       </c>
@@ -1533,7 +1563,10 @@
       <c r="U11">
         <v>10</v>
       </c>
-      <c r="V11" s="10">
+      <c r="V11">
+        <v>15</v>
+      </c>
+      <c r="Z11" s="10">
         <f>SUM(M11:U11)</f>
         <v>85</v>
       </c>
@@ -1602,7 +1635,10 @@
       <c r="U12">
         <v>10</v>
       </c>
-      <c r="V12" s="10">
+      <c r="V12">
+        <v>15</v>
+      </c>
+      <c r="Z12" s="10">
         <f>SUM(M12:U12)</f>
         <v>60</v>
       </c>
@@ -1671,7 +1707,10 @@
       <c r="U13">
         <v>10</v>
       </c>
-      <c r="V13" s="10">
+      <c r="V13">
+        <v>15</v>
+      </c>
+      <c r="Z13" s="10">
         <f>SUM(M13:U13)</f>
         <v>0</v>
       </c>
@@ -1740,7 +1779,10 @@
       <c r="U14">
         <v>-15</v>
       </c>
-      <c r="V14" s="10">
+      <c r="V14">
+        <v>-10</v>
+      </c>
+      <c r="Z14" s="10">
         <f>SUM(M14:U14)</f>
         <v>0</v>
       </c>
@@ -1809,7 +1851,10 @@
       <c r="U15">
         <v>-15</v>
       </c>
-      <c r="V15" s="10">
+      <c r="V15">
+        <v>-10</v>
+      </c>
+      <c r="Z15" s="10">
         <f>SUM(M15:U15)</f>
         <v>-115</v>
       </c>
@@ -1878,7 +1923,10 @@
       <c r="U16">
         <v>10</v>
       </c>
-      <c r="V16" s="10">
+      <c r="V16">
+        <v>15</v>
+      </c>
+      <c r="Z16" s="10">
         <f>SUM(M16:U16)</f>
         <v>85</v>
       </c>
@@ -1947,7 +1995,10 @@
       <c r="U17">
         <v>10</v>
       </c>
-      <c r="V17" s="10">
+      <c r="V17">
+        <v>15</v>
+      </c>
+      <c r="Z17" s="10">
         <f>SUM(M17:U17)</f>
         <v>85</v>
       </c>
@@ -2016,7 +2067,10 @@
       <c r="U18">
         <v>10</v>
       </c>
-      <c r="V18" s="10">
+      <c r="V18">
+        <v>15</v>
+      </c>
+      <c r="Z18" s="10">
         <f>SUM(M18:U18)</f>
         <v>85</v>
       </c>
@@ -2085,7 +2139,10 @@
       <c r="U19">
         <v>10</v>
       </c>
-      <c r="V19" s="10">
+      <c r="V19">
+        <v>-10</v>
+      </c>
+      <c r="Z19" s="10">
         <f>SUM(M19:U19)</f>
         <v>35</v>
       </c>
@@ -2099,7 +2156,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{00E10068-009D-4774-8A45-00D50098009D}">
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{003F006F-0003-4B41-B025-00E4005C0080}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -2116,7 +2173,7 @@
           <xm:sqref>C2:N19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{005E008D-00F7-4F09-BA01-001B00F000DA}">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{0029009A-00F7-4D36-A8E8-003A00C60005}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -2133,7 +2190,7 @@
           <xm:sqref>C2:N19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{00AA001E-0063-4214-BB18-008B005C0022}">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{00CA0070-00F3-40D9-A3FA-004500200080}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -2150,7 +2207,7 @@
           <xm:sqref>C2:N19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{007C0009-0013-4B5B-8C1E-00C7007B00C0}">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{00CA0036-00B6-45C1-8A58-0034008400BF}">
             <xm:f>0</xm:f>
             <x14:dxf>
               <font>
@@ -2158,10 +2215,10 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>V2 V3 V4 V5 V6 V7 V8 V9 V10 V11 V12 V13 V14 V15 V16 V17 V18 V19</xm:sqref>
+          <xm:sqref>Z2 Z3 Z4 Z5 Z6 Z7 Z8 Z9 Z10 Z11 Z12 Z13 Z14 Z15 Z16 Z17 Z18 Z19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="lessThan" id="{00AB0031-003A-44F5-B687-002800AE0013}">
+          <x14:cfRule type="cellIs" priority="2" operator="lessThan" id="{001A00C9-0021-4678-8BFD-008700F30041}">
             <xm:f>0</xm:f>
             <x14:dxf>
               <font>
@@ -2169,10 +2226,10 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>V2 V3 V4 V5 V6 V7 V8 V9 V10 V11 V12 V13 V14 V15 V16 V17 V18 V19</xm:sqref>
+          <xm:sqref>Z2 Z3 Z4 Z5 Z6 Z7 Z8 Z9 Z10 Z11 Z12 Z13 Z14 Z15 Z16 Z17 Z18 Z19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00B800EB-0092-40D0-A132-003A009D000E}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{006B0018-00B9-44FC-A66A-009400D100BB}">
             <xm:f>0</xm:f>
             <x14:dxf>
               <font>
@@ -2180,7 +2237,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>V2 V3 V4 V5 V6 V7 V8 V9 V10 V11 V12 V13 V14 V15 V16 V17 V18 V19</xm:sqref>
+          <xm:sqref>Z2 Z3 Z4 Z5 Z6 Z7 Z8 Z9 Z10 Z11 Z12 Z13 Z14 Z15 Z16 Z17 Z18 Z19</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Успеваемость_С-ИП-21-1.xlsx
+++ b/Успеваемость_С-ИП-21-1.xlsx
@@ -1,18 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/information-systems-testing/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A75335-5297-154E-A123-421EF345B4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Посещаемость" sheetId="1" r:id="rId4"/>
-    <sheet name="Успеваемость" sheetId="2" r:id="rId5"/>
+    <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
+    <sheet name="Успеваемость" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="32">
   <si>
     <t>№</t>
   </si>
@@ -86,47 +107,45 @@
     <t>Ястребков Вадим Андреевич</t>
   </si>
   <si>
-    <t>Docker</t>
+    <t>Итог</t>
   </si>
   <si>
-    <t>Virtual</t>
+    <t>Доп</t>
   </si>
   <si>
-    <t>Postman</t>
+    <t>Doc (16)</t>
   </si>
   <si>
-    <t>Selenium</t>
+    <t>Virtual (16)</t>
   </si>
   <si>
-    <t>Итог</t>
+    <t>Postman (16)</t>
+  </si>
+  <si>
+    <t>Selenium (16)</t>
+  </si>
+  <si>
+    <t>Faker (16)</t>
+  </si>
+  <si>
+    <t>Тест  (20)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="d.m"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d\.m"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -157,7 +176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -227,126 +246,141 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="36">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="27">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
       <font>
-        <color rgb="ff9c5700"/>
+        <color rgb="FF006100"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="13"/>
-          <bgColor indexed="14"/>
+          <bgColor indexed="18"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="ff006100"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -357,61 +391,98 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="ff9c0006"/>
+        <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="13"/>
-          <bgColor indexed="18"/>
+          <bgColor indexed="14"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="ff9c5700"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="ff9c0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="ff006100"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFDBDBDB"/>
       <rgbColor rgb="00000000"/>
-      <rgbColor rgb="ffffeb9c"/>
-      <rgbColor rgb="ff9c5700"/>
-      <rgbColor rgb="ffc6efce"/>
-      <rgbColor rgb="ff006100"/>
-      <rgbColor rgb="ffffc7ce"/>
-      <rgbColor rgb="ff9c0006"/>
+      <rgbColor rgb="FFFFEB9C"/>
+      <rgbColor rgb="FF9C5700"/>
+      <rgbColor rgb="FFC6EFCE"/>
+      <rgbColor rgb="FF006100"/>
+      <rgbColor rgb="FFFFC7CE"/>
+      <rgbColor rgb="FF9C0006"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -537,7 +608,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -546,7 +617,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -555,7 +626,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -629,7 +700,7 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -637,7 +708,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -655,7 +726,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -684,7 +755,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -709,7 +780,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -734,7 +805,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -759,7 +830,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -784,7 +855,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -809,7 +880,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -834,7 +905,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -859,7 +930,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -884,7 +955,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -897,9 +968,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -914,7 +991,7 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -922,7 +999,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -940,7 +1017,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -965,7 +1042,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -990,7 +1067,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1015,7 +1092,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1040,7 +1117,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1065,7 +1142,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1090,7 +1167,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1115,7 +1192,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1140,7 +1217,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1165,7 +1242,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1178,9 +1255,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1194,7 +1277,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1212,7 +1295,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1241,7 +1324,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1266,7 +1349,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1291,7 +1374,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1316,7 +1399,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1341,7 +1424,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1366,7 +1449,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1391,7 +1474,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1416,7 +1499,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1441,7 +1524,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1454,38 +1537,46 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="C1" xSplit="2" ySplit="0" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="150" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.5" style="1" customWidth="1"/>
-    <col min="3" max="19" width="9.17188" style="1" customWidth="1"/>
-    <col min="20" max="26" width="8.85156" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="3" max="19" width="9.1640625" style="1" customWidth="1"/>
+    <col min="20" max="27" width="8.83203125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3">
@@ -1553,45 +1644,45 @@
       </c>
       <c r="X1" s="8"/>
       <c r="Y1" s="8"/>
-      <c r="Z1" t="s" s="9">
+      <c r="Z1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="11">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="K2" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="L2" t="s" s="12">
+      <c r="C2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="M2" s="13">
@@ -1630,45 +1721,45 @@
       <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
       <c r="Z2" s="16">
-        <f>SUM(M2:U2)</f>
+        <f t="shared" ref="Z2:Z19" si="0">SUM(M2:U2)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="11">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="J3" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="K3" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="L3" t="s" s="12">
+      <c r="C3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="M3" s="13">
@@ -1707,45 +1798,45 @@
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
       <c r="Z3" s="16">
-        <f>SUM(M3:U3)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="11">
+      <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="I4" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="J4" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="K4" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="L4" t="s" s="12">
+      <c r="C4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="M4" s="13">
@@ -1779,50 +1870,50 @@
         <v>15</v>
       </c>
       <c r="W4" s="15">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
       <c r="Z4" s="16">
-        <f>SUM(M4:U4)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="11">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="G5" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="I5" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="J5" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="K5" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="L5" t="s" s="12">
+      <c r="C5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="12" t="s">
         <v>9</v>
       </c>
       <c r="M5" s="13">
@@ -1861,45 +1952,45 @@
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
       <c r="Z5" s="16">
-        <f>SUM(M5:U5)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="I6" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="J6" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="K6" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="L6" t="s" s="12">
+      <c r="B6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="12" t="s">
         <v>5</v>
       </c>
       <c r="M6" s="13">
@@ -1938,45 +2029,45 @@
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
       <c r="Z6" s="16">
-        <f>SUM(M6:U6)</f>
+        <f t="shared" si="0"/>
         <v>-65</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="11">
+      <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="H7" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="I7" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="J7" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="K7" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="L7" t="s" s="12">
+      <c r="C7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="12" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="13">
@@ -2015,45 +2106,45 @@
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
       <c r="Z7" s="16">
-        <f>SUM(M7:U7)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="11">
+      <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="G8" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="H8" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="I8" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="J8" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="K8" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="L8" t="s" s="12">
+      <c r="C8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="12" t="s">
         <v>5</v>
       </c>
       <c r="M8" s="13">
@@ -2092,45 +2183,45 @@
       <c r="X8" s="8"/>
       <c r="Y8" s="8"/>
       <c r="Z8" s="16">
-        <f>SUM(M8:U8)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" t="s" s="11">
+      <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="F9" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="G9" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="H9" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="I9" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="J9" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="K9" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="L9" t="s" s="12">
+      <c r="C9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="12" t="s">
         <v>5</v>
       </c>
       <c r="M9" s="13">
@@ -2169,45 +2260,45 @@
       <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
       <c r="Z9" s="16">
-        <f>SUM(M9:U9)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="11">
+      <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="G10" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="H10" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="I10" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="J10" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="K10" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="L10" t="s" s="12">
+      <c r="C10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="12" t="s">
         <v>5</v>
       </c>
       <c r="M10" s="13">
@@ -2246,45 +2337,45 @@
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
       <c r="Z10" s="16">
-        <f>SUM(M10:U10)</f>
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" t="s" s="11">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="F11" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="G11" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="H11" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="I11" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="J11" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="K11" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="L11" t="s" s="12">
+      <c r="B11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="12" t="s">
         <v>5</v>
       </c>
       <c r="M11" s="13">
@@ -2323,45 +2414,45 @@
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
       <c r="Z11" s="16">
-        <f>SUM(M11:U11)</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" t="s" s="11">
+      <c r="B12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="G12" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="H12" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="I12" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="J12" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="K12" t="s" s="12">
+      <c r="C12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L12" t="s" s="12">
+      <c r="L12" s="12" t="s">
         <v>9</v>
       </c>
       <c r="M12" s="13">
@@ -2400,45 +2491,45 @@
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
       <c r="Z12" s="16">
-        <f>SUM(M12:U12)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" t="s" s="11">
+      <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="G13" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="H13" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="I13" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="J13" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="K13" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="L13" t="s" s="12">
+      <c r="C13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="12" t="s">
         <v>5</v>
       </c>
       <c r="M13" s="13">
@@ -2477,45 +2568,45 @@
       <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
       <c r="Z13" s="16">
-        <f>SUM(M13:U13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14" t="s" s="11">
+      <c r="B14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C14" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="E14" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="G14" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="H14" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="I14" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="J14" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="K14" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="L14" t="s" s="12">
+      <c r="C14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="12" t="s">
         <v>5</v>
       </c>
       <c r="M14" s="13">
@@ -2554,45 +2645,45 @@
       <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
       <c r="Z14" s="16">
-        <f>SUM(M14:U14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="B15" t="s" s="11">
+      <c r="B15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C15" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="F15" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="G15" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="H15" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="I15" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="J15" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="K15" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="L15" t="s" s="12">
+      <c r="C15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="12" t="s">
         <v>4</v>
       </c>
       <c r="M15" s="13">
@@ -2631,45 +2722,45 @@
       <c r="X15" s="8"/>
       <c r="Y15" s="8"/>
       <c r="Z15" s="16">
-        <f>SUM(M15:U15)</f>
+        <f t="shared" si="0"/>
         <v>-115</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" t="s" s="11">
+      <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="F16" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="G16" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="H16" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="I16" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="J16" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="K16" t="s" s="12">
+      <c r="C16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L16" t="s" s="12">
+      <c r="L16" s="12" t="s">
         <v>9</v>
       </c>
       <c r="M16" s="13">
@@ -2708,45 +2799,45 @@
       <c r="X16" s="8"/>
       <c r="Y16" s="8"/>
       <c r="Z16" s="16">
-        <f>SUM(M16:U16)</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" t="s" s="11">
+      <c r="B17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C17" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="E17" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="F17" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="G17" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="H17" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="I17" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="J17" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="K17" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="L17" t="s" s="12">
+      <c r="C17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="12" t="s">
         <v>5</v>
       </c>
       <c r="M17" s="13">
@@ -2785,45 +2876,45 @@
       <c r="X17" s="8"/>
       <c r="Y17" s="8"/>
       <c r="Z17" s="16">
-        <f>SUM(M17:U17)</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" t="s" s="11">
+      <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C18" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="F18" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="G18" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="H18" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="I18" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="J18" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="K18" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="L18" t="s" s="12">
+      <c r="C18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="12" t="s">
         <v>5</v>
       </c>
       <c r="M18" s="13">
@@ -2862,45 +2953,45 @@
       <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
       <c r="Z18" s="16">
-        <f>SUM(M18:U18)</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
+    <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" t="s" s="11">
+      <c r="B19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="E19" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="F19" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="G19" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="H19" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="I19" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="J19" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="K19" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="L19" t="s" s="12">
+      <c r="C19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" s="12" t="s">
         <v>5</v>
       </c>
       <c r="M19" s="13">
@@ -2939,35 +3030,35 @@
       <c r="X19" s="8"/>
       <c r="Y19" s="8"/>
       <c r="Z19" s="16">
-        <f>SUM(M19:U19)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:N19">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>"#"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:Z19">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="1" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.700787" right="0.700787" top="0.751969" bottom="0.751969" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.70078700000000005" right="0.70078700000000005" top="0.751969" bottom="0.751969" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2975,597 +3066,632 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="174" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.35156" style="17" customWidth="1"/>
-    <col min="2" max="2" width="36.5" style="17" customWidth="1"/>
-    <col min="3" max="10" width="9.17188" style="17" customWidth="1"/>
-    <col min="11" max="11" width="8.85156" style="17" customWidth="1"/>
-    <col min="12" max="16384" width="8.85156" style="17" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="8.83203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="18">
+    <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="18">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s" s="12">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="F1" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" t="s" s="20">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="21">
+    </row>
+    <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="22">
+      <c r="B2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="22">
+        <v>6</v>
+      </c>
+      <c r="D2" s="22">
+        <v>16</v>
+      </c>
+      <c r="E2" s="22">
+        <v>8</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="19">
+        <f>SUM(C2:I2)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="22">
+        <v>6</v>
+      </c>
+      <c r="D3" s="22">
+        <v>16</v>
+      </c>
+      <c r="E3" s="22">
+        <v>8</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="19">
+        <f t="shared" ref="J3:J19" si="0">SUM(C3:I3)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="D2" s="13">
-        <v>10</v>
-      </c>
-      <c r="E2" s="13">
-        <v>4</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="21">
-        <f>SUM(C2:J2)</f>
+      <c r="B4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="22">
+        <v>6</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22">
+        <v>8</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="19">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22">
+        <v>16</v>
+      </c>
+      <c r="E5" s="22">
+        <v>8</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="19">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19">
+        <v>6</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22">
+        <v>16</v>
+      </c>
+      <c r="E7" s="22">
+        <v>8</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="19">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="19">
+        <v>7</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="22">
+        <v>16</v>
+      </c>
+      <c r="D8" s="22">
+        <v>16</v>
+      </c>
+      <c r="E8" s="22">
+        <v>8</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21">
+        <v>20</v>
+      </c>
+      <c r="J8" s="19">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="22">
+        <v>8</v>
+      </c>
+      <c r="D9" s="22">
+        <v>16</v>
+      </c>
+      <c r="E9" s="22">
+        <v>8</v>
+      </c>
+      <c r="F9" s="22">
+        <v>16</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="19">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="19">
+        <v>9</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="22">
+        <v>8</v>
+      </c>
+      <c r="D10" s="22">
+        <v>16</v>
+      </c>
+      <c r="E10" s="22">
+        <v>8</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="19">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="22">
+        <v>16</v>
+      </c>
+      <c r="D11" s="22">
+        <v>16</v>
+      </c>
+      <c r="E11" s="22">
+        <v>8</v>
+      </c>
+      <c r="F11" s="22">
+        <v>16</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="19">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="19">
+        <v>11</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="22">
+        <v>8</v>
+      </c>
+      <c r="D12" s="22">
+        <v>16</v>
+      </c>
+      <c r="E12" s="22">
+        <v>8</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="19">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="19">
+        <v>12</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="21">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s" s="22">
+      <c r="C13" s="22">
+        <v>8</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22">
+        <v>8</v>
+      </c>
+      <c r="F13" s="22">
+        <v>16</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="19">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19">
+        <v>13</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="22">
+        <v>8</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="19">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19">
+        <v>14</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="22">
         <v>6</v>
       </c>
-      <c r="C3" s="13">
-        <v>3</v>
-      </c>
-      <c r="D3" s="13">
-        <v>10</v>
-      </c>
-      <c r="E3" s="13">
-        <v>3</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="21">
-        <f>SUM(C3:J3)</f>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="24">
+        <v>15</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="26">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="21">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s" s="22">
-        <v>7</v>
-      </c>
-      <c r="C4" s="13">
-        <v>3</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="13">
-        <v>5</v>
-      </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="21">
-        <f>SUM(C4:J4)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="21">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s" s="22">
-        <v>8</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="13">
-        <v>10</v>
-      </c>
-      <c r="E5" s="13">
-        <v>5</v>
-      </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="21">
-        <f>SUM(C5:J5)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="21">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s" s="22">
-        <v>10</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="21">
-        <f>SUM(C6:J6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="21">
+      <c r="D16" s="26">
+        <v>16</v>
+      </c>
+      <c r="E16" s="26">
+        <v>16</v>
+      </c>
+      <c r="F16" s="26">
+        <v>16</v>
+      </c>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="24">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="32">
+        <v>16</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="34">
+        <v>16</v>
+      </c>
+      <c r="D17" s="34">
+        <v>16</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="34">
+        <v>16</v>
+      </c>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35">
+        <v>20</v>
+      </c>
+      <c r="J17" s="32">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="32">
+        <v>17</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="34">
+        <v>16</v>
+      </c>
+      <c r="D18" s="34">
+        <v>16</v>
+      </c>
+      <c r="E18" s="34">
+        <v>16</v>
+      </c>
+      <c r="F18" s="34">
+        <v>16</v>
+      </c>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="32">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="32">
+        <v>18</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="34">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="22">
-        <v>11</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="13">
-        <v>10</v>
-      </c>
-      <c r="E7" s="13">
-        <v>5</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="21">
-        <f>SUM(C7:J7)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="21">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s" s="22">
-        <v>12</v>
-      </c>
-      <c r="C8" s="13">
-        <v>10</v>
-      </c>
-      <c r="D8" s="13">
-        <v>10</v>
-      </c>
-      <c r="E8" s="13">
-        <v>5</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="21">
-        <f>SUM(C8:J8)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="21">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s" s="22">
-        <v>13</v>
-      </c>
-      <c r="C9" s="13">
-        <v>6</v>
-      </c>
-      <c r="D9" s="13">
-        <v>10</v>
-      </c>
-      <c r="E9" s="13">
-        <v>5</v>
-      </c>
-      <c r="F9" s="13">
-        <v>10</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="21">
-        <f>SUM(C9:J9)</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="21">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s" s="22">
-        <v>14</v>
-      </c>
-      <c r="C10" s="13">
-        <v>6</v>
-      </c>
-      <c r="D10" s="13">
-        <v>10</v>
-      </c>
-      <c r="E10" s="13">
-        <v>5</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="21">
-        <f>SUM(C10:J10)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" s="21">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s" s="22">
-        <v>15</v>
-      </c>
-      <c r="C11" s="13">
-        <v>10</v>
-      </c>
-      <c r="D11" s="13">
-        <v>10</v>
-      </c>
-      <c r="E11" s="13">
-        <v>5</v>
-      </c>
-      <c r="F11" s="13">
-        <v>10</v>
-      </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="21">
-        <f>SUM(C11:J11)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" s="21">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s" s="22">
+      <c r="D19" s="34">
         <v>16</v>
       </c>
-      <c r="C12" s="13">
-        <v>6</v>
-      </c>
-      <c r="D12" s="13">
-        <v>10</v>
-      </c>
-      <c r="E12" s="13">
-        <v>5</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="21">
-        <f>SUM(C12:J12)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" s="21">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s" s="22">
-        <v>17</v>
-      </c>
-      <c r="C13" s="13">
-        <v>6</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="13">
-        <v>5</v>
-      </c>
-      <c r="F13" s="13">
-        <v>10</v>
-      </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="21">
-        <f>SUM(C13:J13)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" s="21">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s" s="22">
-        <v>18</v>
-      </c>
-      <c r="C14" s="13">
-        <v>6</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="21">
-        <f>SUM(C14:J14)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" s="21">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s" s="22">
-        <v>19</v>
-      </c>
-      <c r="C15" s="13">
-        <v>3</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="21">
-        <f>SUM(C15:J15)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" ht="13.55" customHeight="1">
-      <c r="A16" s="21">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s" s="22">
-        <v>20</v>
-      </c>
-      <c r="C16" s="13">
-        <v>10</v>
-      </c>
-      <c r="D16" s="13">
-        <v>10</v>
-      </c>
-      <c r="E16" s="13">
-        <v>5</v>
-      </c>
-      <c r="F16" s="13">
-        <v>10</v>
-      </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="21">
-        <f>SUM(C16:J16)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" s="21">
+      <c r="E19" s="35"/>
+      <c r="F19" s="34">
         <v>16</v>
       </c>
-      <c r="B17" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="C17" s="13">
-        <v>10</v>
-      </c>
-      <c r="D17" s="13">
-        <v>10</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="13">
-        <v>10</v>
-      </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="21">
-        <f>SUM(C17:J17)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" s="21">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s" s="22">
-        <v>22</v>
-      </c>
-      <c r="C18" s="13">
-        <v>10</v>
-      </c>
-      <c r="D18" s="13">
-        <v>10</v>
-      </c>
-      <c r="E18" s="13">
-        <v>5</v>
-      </c>
-      <c r="F18" s="13">
-        <v>10</v>
-      </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="21">
-        <f>SUM(C18:J18)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" s="21">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s" s="22">
-        <v>23</v>
-      </c>
-      <c r="C19" s="13">
-        <v>3</v>
-      </c>
-      <c r="D19" s="13">
-        <v>10</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="13">
-        <v>10</v>
-      </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="21">
-        <f>SUM(C19:J19)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="23"/>
-    </row>
-    <row r="21" ht="13.55" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="8"/>
-    </row>
-    <row r="22" ht="13.55" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="8"/>
-    </row>
-    <row r="23" ht="13.55" customHeight="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="8"/>
-    </row>
-    <row r="24" ht="13.55" customHeight="1">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="8"/>
-    </row>
-    <row r="25" ht="13.55" customHeight="1">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="8"/>
-    </row>
-    <row r="26" ht="13.55" customHeight="1">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="8"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="32">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="30"/>
+    </row>
+    <row r="21" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="30"/>
+    </row>
+    <row r="22" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="30"/>
+    </row>
+    <row r="23" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="30"/>
+    </row>
+    <row r="24" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="30"/>
+    </row>
+    <row r="25" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="30"/>
+    </row>
+    <row r="26" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="30"/>
+    </row>
+    <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+    </row>
+    <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Успеваемость_С-ИП-21-1.xlsx
+++ b/Успеваемость_С-ИП-21-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/information-systems-testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A75335-5297-154E-A123-421EF345B4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A5D275-6A02-5445-9E83-662BAEBF66BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1559,8 +1559,8 @@
   <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X1" sqref="X1"/>
+      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1793,7 +1793,7 @@
         <v>15</v>
       </c>
       <c r="W3" s="15">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
@@ -3070,7 +3070,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="174" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3162,13 +3162,15 @@
       <c r="E3" s="22">
         <v>8</v>
       </c>
-      <c r="F3" s="21"/>
+      <c r="F3" s="21">
+        <v>16</v>
+      </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
       <c r="J3" s="19">
         <f t="shared" ref="J3:J19" si="0">SUM(C3:I3)</f>
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3185,13 +3187,15 @@
       <c r="E4" s="22">
         <v>8</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="21">
+        <v>16</v>
+      </c>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
       <c r="J4" s="19">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3329,13 +3333,15 @@
       <c r="E10" s="22">
         <v>8</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="21">
+        <v>16</v>
+      </c>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="19">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3357,12 +3363,14 @@
       <c r="F11" s="22">
         <v>16</v>
       </c>
-      <c r="G11" s="21"/>
+      <c r="G11" s="21">
+        <v>16</v>
+      </c>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="19">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3381,13 +3389,15 @@
       <c r="E12" s="22">
         <v>8</v>
       </c>
-      <c r="F12" s="21"/>
+      <c r="F12" s="21">
+        <v>16</v>
+      </c>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="19">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3400,7 +3410,9 @@
       <c r="C13" s="22">
         <v>8</v>
       </c>
-      <c r="D13" s="21"/>
+      <c r="D13" s="21">
+        <v>16</v>
+      </c>
       <c r="E13" s="22">
         <v>8</v>
       </c>
@@ -3412,7 +3424,7 @@
       <c r="I13" s="21"/>
       <c r="J13" s="19">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3426,14 +3438,18 @@
         <v>8</v>
       </c>
       <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="E14" s="21">
+        <v>8</v>
+      </c>
+      <c r="F14" s="21">
+        <v>16</v>
+      </c>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="19">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3476,12 +3492,14 @@
       <c r="F16" s="26">
         <v>16</v>
       </c>
-      <c r="G16" s="27"/>
+      <c r="G16" s="27">
+        <v>16</v>
+      </c>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
       <c r="J16" s="24">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3497,7 +3515,9 @@
       <c r="D17" s="34">
         <v>16</v>
       </c>
-      <c r="E17" s="35"/>
+      <c r="E17" s="35">
+        <v>8</v>
+      </c>
       <c r="F17" s="34">
         <v>16</v>
       </c>
@@ -3508,7 +3528,7 @@
       </c>
       <c r="J17" s="32">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3530,12 +3550,14 @@
       <c r="F18" s="34">
         <v>16</v>
       </c>
-      <c r="G18" s="35"/>
+      <c r="G18" s="35">
+        <v>16</v>
+      </c>
       <c r="H18" s="35"/>
       <c r="I18" s="35"/>
       <c r="J18" s="32">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/Успеваемость_С-ИП-21-1.xlsx
+++ b/Успеваемость_С-ИП-21-1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/information-systems-testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A5D275-6A02-5445-9E83-662BAEBF66BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3394817-699D-BD42-9C5D-0B203CDC1322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1559,8 +1559,8 @@
   <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W18" sqref="W18"/>
+      <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1642,7 +1642,9 @@
       <c r="W1" s="7">
         <v>45021</v>
       </c>
-      <c r="X1" s="8"/>
+      <c r="X1" s="6">
+        <v>45028</v>
+      </c>
       <c r="Y1" s="8"/>
       <c r="Z1" s="9" t="s">
         <v>2</v>
@@ -1718,11 +1720,13 @@
       <c r="W2" s="15">
         <v>15</v>
       </c>
-      <c r="X2" s="8"/>
+      <c r="X2" s="8">
+        <v>15</v>
+      </c>
       <c r="Y2" s="8"/>
       <c r="Z2" s="16">
-        <f t="shared" ref="Z2:Z19" si="0">SUM(M2:U2)</f>
-        <v>35</v>
+        <f>SUM(M2:Y2)</f>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1795,11 +1799,13 @@
       <c r="W3" s="15">
         <v>0</v>
       </c>
-      <c r="X3" s="8"/>
+      <c r="X3" s="8">
+        <v>-10</v>
+      </c>
       <c r="Y3" s="8"/>
       <c r="Z3" s="16">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <f t="shared" ref="Z3:Z19" si="0">SUM(M3:Y3)</f>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1872,11 +1878,13 @@
       <c r="W4" s="15">
         <v>0</v>
       </c>
-      <c r="X4" s="8"/>
+      <c r="X4" s="8">
+        <v>15</v>
+      </c>
       <c r="Y4" s="8"/>
       <c r="Z4" s="16">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1949,11 +1957,13 @@
       <c r="W5" s="15">
         <v>-10</v>
       </c>
-      <c r="X5" s="8"/>
+      <c r="X5" s="8">
+        <v>15</v>
+      </c>
       <c r="Y5" s="8"/>
       <c r="Z5" s="16">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2026,11 +2036,13 @@
       <c r="W6" s="15">
         <v>15</v>
       </c>
-      <c r="X6" s="8"/>
+      <c r="X6" s="8">
+        <v>15</v>
+      </c>
       <c r="Y6" s="8"/>
       <c r="Z6" s="16">
         <f t="shared" si="0"/>
-        <v>-65</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2103,11 +2115,13 @@
       <c r="W7" s="15">
         <v>15</v>
       </c>
-      <c r="X7" s="8"/>
+      <c r="X7" s="8">
+        <v>-10</v>
+      </c>
       <c r="Y7" s="8"/>
       <c r="Z7" s="16">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2180,11 +2194,13 @@
       <c r="W8" s="15">
         <v>0</v>
       </c>
-      <c r="X8" s="8"/>
+      <c r="X8" s="8">
+        <v>-10</v>
+      </c>
       <c r="Y8" s="8"/>
       <c r="Z8" s="16">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2257,11 +2273,13 @@
       <c r="W9" s="15">
         <v>15</v>
       </c>
-      <c r="X9" s="8"/>
+      <c r="X9" s="8">
+        <v>-10</v>
+      </c>
       <c r="Y9" s="8"/>
       <c r="Z9" s="16">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2334,11 +2352,13 @@
       <c r="W10" s="15">
         <v>-10</v>
       </c>
-      <c r="X10" s="8"/>
+      <c r="X10" s="8">
+        <v>-10</v>
+      </c>
       <c r="Y10" s="8"/>
       <c r="Z10" s="16">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2411,11 +2431,13 @@
       <c r="W11" s="15">
         <v>15</v>
       </c>
-      <c r="X11" s="8"/>
+      <c r="X11" s="8">
+        <v>-10</v>
+      </c>
       <c r="Y11" s="8"/>
       <c r="Z11" s="16">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2488,11 +2510,13 @@
       <c r="W12" s="15">
         <v>15</v>
       </c>
-      <c r="X12" s="8"/>
+      <c r="X12" s="8">
+        <v>15</v>
+      </c>
       <c r="Y12" s="8"/>
       <c r="Z12" s="16">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2565,11 +2589,13 @@
       <c r="W13" s="15">
         <v>15</v>
       </c>
-      <c r="X13" s="8"/>
+      <c r="X13" s="8">
+        <v>-10</v>
+      </c>
       <c r="Y13" s="8"/>
       <c r="Z13" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2642,11 +2668,13 @@
       <c r="W14" s="15">
         <v>-10</v>
       </c>
-      <c r="X14" s="8"/>
+      <c r="X14" s="8">
+        <v>15</v>
+      </c>
       <c r="Y14" s="8"/>
       <c r="Z14" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2719,11 +2747,13 @@
       <c r="W15" s="15">
         <v>-10</v>
       </c>
-      <c r="X15" s="8"/>
+      <c r="X15" s="8">
+        <v>-10</v>
+      </c>
       <c r="Y15" s="8"/>
       <c r="Z15" s="16">
         <f t="shared" si="0"/>
-        <v>-115</v>
+        <v>-145</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2796,11 +2826,13 @@
       <c r="W16" s="15">
         <v>-10</v>
       </c>
-      <c r="X16" s="8"/>
+      <c r="X16" s="8">
+        <v>15</v>
+      </c>
       <c r="Y16" s="8"/>
       <c r="Z16" s="16">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2873,11 +2905,13 @@
       <c r="W17" s="15">
         <v>0</v>
       </c>
-      <c r="X17" s="8"/>
+      <c r="X17" s="8">
+        <v>15</v>
+      </c>
       <c r="Y17" s="8"/>
       <c r="Z17" s="16">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2950,11 +2984,13 @@
       <c r="W18" s="15">
         <v>-10</v>
       </c>
-      <c r="X18" s="8"/>
+      <c r="X18" s="8">
+        <v>15</v>
+      </c>
       <c r="Y18" s="8"/>
       <c r="Z18" s="16">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3027,11 +3063,13 @@
       <c r="W19" s="15">
         <v>15</v>
       </c>
-      <c r="X19" s="8"/>
+      <c r="X19" s="8">
+        <v>15</v>
+      </c>
       <c r="Y19" s="8"/>
       <c r="Z19" s="16">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3070,7 +3108,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="174" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3229,7 +3267,9 @@
         <v>10</v>
       </c>
       <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="D6" s="21">
+        <v>16</v>
+      </c>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -3237,7 +3277,7 @@
       <c r="I6" s="21"/>
       <c r="J6" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3437,7 +3477,9 @@
       <c r="C14" s="22">
         <v>8</v>
       </c>
-      <c r="D14" s="21"/>
+      <c r="D14" s="21">
+        <v>16</v>
+      </c>
       <c r="E14" s="21">
         <v>8</v>
       </c>
@@ -3449,7 +3491,7 @@
       <c r="I14" s="21"/>
       <c r="J14" s="19">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/Успеваемость_С-ИП-21-1.xlsx
+++ b/Успеваемость_С-ИП-21-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/information-systems-testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3394817-699D-BD42-9C5D-0B203CDC1322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169CF480-14E5-FA4C-BE7F-D5FD2D77FC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3108,7 +3108,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="174" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3250,13 +3250,15 @@
       <c r="E5" s="22">
         <v>8</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="21">
+        <v>16</v>
+      </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="19">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3271,13 +3273,15 @@
         <v>16</v>
       </c>
       <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="F6" s="21">
+        <v>16</v>
+      </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="19">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/Успеваемость_С-ИП-21-1.xlsx
+++ b/Успеваемость_С-ИП-21-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/information-systems-testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169CF480-14E5-FA4C-BE7F-D5FD2D77FC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938144D6-97C2-F848-8A93-061F926872EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1560,7 +1560,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" workbookViewId="0">
       <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z11" sqref="Z11"/>
+      <selection pane="topRight" activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1645,7 +1645,9 @@
       <c r="X1" s="6">
         <v>45028</v>
       </c>
-      <c r="Y1" s="8"/>
+      <c r="Y1" s="6">
+        <v>45034</v>
+      </c>
       <c r="Z1" s="9" t="s">
         <v>2</v>
       </c>
@@ -3107,8 +3109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="174" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="225" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3177,11 +3179,13 @@
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="H2" s="21">
+        <v>13</v>
+      </c>
       <c r="I2" s="21"/>
       <c r="J2" s="19">
         <f>SUM(C2:I2)</f>
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3204,11 +3208,13 @@
         <v>16</v>
       </c>
       <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="H3" s="21">
+        <v>15</v>
+      </c>
       <c r="I3" s="21"/>
       <c r="J3" s="19">
         <f t="shared" ref="J3:J19" si="0">SUM(C3:I3)</f>
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3229,11 +3235,13 @@
         <v>16</v>
       </c>
       <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+      <c r="H4" s="21">
+        <v>16</v>
+      </c>
       <c r="I4" s="21"/>
       <c r="J4" s="19">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3254,11 +3262,13 @@
         <v>16</v>
       </c>
       <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
+      <c r="H5" s="21">
+        <v>18</v>
+      </c>
       <c r="I5" s="21"/>
       <c r="J5" s="19">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3277,11 +3287,13 @@
         <v>16</v>
       </c>
       <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
+      <c r="H6" s="21">
+        <v>15</v>
+      </c>
       <c r="I6" s="21"/>
       <c r="J6" s="19">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3298,13 +3310,17 @@
       <c r="E7" s="22">
         <v>8</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="21">
+        <v>8</v>
+      </c>
       <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="H7" s="21">
+        <v>18</v>
+      </c>
       <c r="I7" s="21"/>
       <c r="J7" s="19">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3325,13 +3341,15 @@
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="H8" s="21">
+        <v>18</v>
+      </c>
       <c r="I8" s="21">
         <v>20</v>
       </c>
       <c r="J8" s="19">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3353,12 +3371,16 @@
       <c r="F9" s="22">
         <v>16</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+      <c r="G9" s="21">
+        <v>16</v>
+      </c>
+      <c r="H9" s="21">
+        <v>19</v>
+      </c>
       <c r="I9" s="21"/>
       <c r="J9" s="19">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3381,11 +3403,13 @@
         <v>16</v>
       </c>
       <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
+      <c r="H10" s="21">
+        <v>15</v>
+      </c>
       <c r="I10" s="21"/>
       <c r="J10" s="19">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3410,11 +3434,13 @@
       <c r="G11" s="21">
         <v>16</v>
       </c>
-      <c r="H11" s="21"/>
+      <c r="H11" s="21">
+        <v>19</v>
+      </c>
       <c r="I11" s="21"/>
       <c r="J11" s="19">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3437,11 +3463,13 @@
         <v>16</v>
       </c>
       <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
+      <c r="H12" s="21">
+        <v>16</v>
+      </c>
       <c r="I12" s="21"/>
       <c r="J12" s="19">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3463,12 +3491,16 @@
       <c r="F13" s="22">
         <v>16</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
+      <c r="G13" s="21">
+        <v>16</v>
+      </c>
+      <c r="H13" s="21">
+        <v>17</v>
+      </c>
       <c r="I13" s="21"/>
       <c r="J13" s="19">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3491,11 +3523,13 @@
         <v>16</v>
       </c>
       <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
+      <c r="H14" s="21">
+        <v>13</v>
+      </c>
       <c r="I14" s="21"/>
       <c r="J14" s="19">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3541,11 +3575,13 @@
       <c r="G16" s="27">
         <v>16</v>
       </c>
-      <c r="H16" s="27"/>
+      <c r="H16" s="27">
+        <v>17</v>
+      </c>
       <c r="I16" s="27"/>
       <c r="J16" s="24">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3568,13 +3604,15 @@
         <v>16</v>
       </c>
       <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
+      <c r="H17" s="35">
+        <v>16</v>
+      </c>
       <c r="I17" s="35">
         <v>20</v>
       </c>
       <c r="J17" s="32">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3599,11 +3637,13 @@
       <c r="G18" s="35">
         <v>16</v>
       </c>
-      <c r="H18" s="35"/>
+      <c r="H18" s="35">
+        <v>18</v>
+      </c>
       <c r="I18" s="35"/>
       <c r="J18" s="32">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3624,11 +3664,13 @@
         <v>16</v>
       </c>
       <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
+      <c r="H19" s="35">
+        <v>16</v>
+      </c>
       <c r="I19" s="35"/>
       <c r="J19" s="32">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/Успеваемость_С-ИП-21-1.xlsx
+++ b/Успеваемость_С-ИП-21-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/information-systems-testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938144D6-97C2-F848-8A93-061F926872EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8E5489-F261-964F-95F3-42C390091C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -1558,9 +1558,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" workbookViewId="0">
       <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T20" sqref="T20"/>
+      <selection pane="topRight" activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1725,10 +1725,12 @@
       <c r="X2" s="8">
         <v>15</v>
       </c>
-      <c r="Y2" s="8"/>
+      <c r="Y2" s="8">
+        <v>15</v>
+      </c>
       <c r="Z2" s="16">
         <f>SUM(M2:Y2)</f>
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1804,10 +1806,12 @@
       <c r="X3" s="8">
         <v>-10</v>
       </c>
-      <c r="Y3" s="8"/>
+      <c r="Y3" s="8">
+        <v>-10</v>
+      </c>
       <c r="Z3" s="16">
         <f t="shared" ref="Z3:Z19" si="0">SUM(M3:Y3)</f>
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1883,10 +1887,12 @@
       <c r="X4" s="8">
         <v>15</v>
       </c>
-      <c r="Y4" s="8"/>
+      <c r="Y4" s="8">
+        <v>15</v>
+      </c>
       <c r="Z4" s="16">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1962,10 +1968,12 @@
       <c r="X5" s="8">
         <v>15</v>
       </c>
-      <c r="Y5" s="8"/>
+      <c r="Y5" s="8">
+        <v>15</v>
+      </c>
       <c r="Z5" s="16">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2041,10 +2049,12 @@
       <c r="X6" s="8">
         <v>15</v>
       </c>
-      <c r="Y6" s="8"/>
+      <c r="Y6" s="8">
+        <v>-10</v>
+      </c>
       <c r="Z6" s="16">
         <f t="shared" si="0"/>
-        <v>-45</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2120,10 +2130,12 @@
       <c r="X7" s="8">
         <v>-10</v>
       </c>
-      <c r="Y7" s="8"/>
+      <c r="Y7" s="8">
+        <v>15</v>
+      </c>
       <c r="Z7" s="16">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2199,10 +2211,12 @@
       <c r="X8" s="8">
         <v>-10</v>
       </c>
-      <c r="Y8" s="8"/>
+      <c r="Y8" s="8">
+        <v>-10</v>
+      </c>
       <c r="Z8" s="16">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2278,10 +2292,12 @@
       <c r="X9" s="8">
         <v>-10</v>
       </c>
-      <c r="Y9" s="8"/>
+      <c r="Y9" s="8">
+        <v>-10</v>
+      </c>
       <c r="Z9" s="16">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2357,10 +2373,12 @@
       <c r="X10" s="8">
         <v>-10</v>
       </c>
-      <c r="Y10" s="8"/>
+      <c r="Y10" s="8">
+        <v>-10</v>
+      </c>
       <c r="Z10" s="16">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2436,10 +2454,12 @@
       <c r="X11" s="8">
         <v>-10</v>
       </c>
-      <c r="Y11" s="8"/>
+      <c r="Y11" s="8">
+        <v>-10</v>
+      </c>
       <c r="Z11" s="16">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2515,10 +2535,12 @@
       <c r="X12" s="8">
         <v>15</v>
       </c>
-      <c r="Y12" s="8"/>
+      <c r="Y12" s="8">
+        <v>15</v>
+      </c>
       <c r="Z12" s="16">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2594,10 +2616,12 @@
       <c r="X13" s="8">
         <v>-10</v>
       </c>
-      <c r="Y13" s="8"/>
+      <c r="Y13" s="8">
+        <v>-10</v>
+      </c>
       <c r="Z13" s="16">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2673,10 +2697,12 @@
       <c r="X14" s="8">
         <v>15</v>
       </c>
-      <c r="Y14" s="8"/>
+      <c r="Y14" s="8">
+        <v>15</v>
+      </c>
       <c r="Z14" s="16">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2752,10 +2778,12 @@
       <c r="X15" s="8">
         <v>-10</v>
       </c>
-      <c r="Y15" s="8"/>
+      <c r="Y15" s="8">
+        <v>-10</v>
+      </c>
       <c r="Z15" s="16">
         <f t="shared" si="0"/>
-        <v>-145</v>
+        <v>-155</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2831,10 +2859,12 @@
       <c r="X16" s="8">
         <v>15</v>
       </c>
-      <c r="Y16" s="8"/>
+      <c r="Y16" s="8">
+        <v>-10</v>
+      </c>
       <c r="Z16" s="16">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2910,10 +2940,12 @@
       <c r="X17" s="8">
         <v>15</v>
       </c>
-      <c r="Y17" s="8"/>
+      <c r="Y17" s="8">
+        <v>-10</v>
+      </c>
       <c r="Z17" s="16">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2989,10 +3021,12 @@
       <c r="X18" s="8">
         <v>15</v>
       </c>
-      <c r="Y18" s="8"/>
+      <c r="Y18" s="8">
+        <v>-10</v>
+      </c>
       <c r="Z18" s="16">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3068,10 +3102,12 @@
       <c r="X19" s="8">
         <v>15</v>
       </c>
-      <c r="Y19" s="8"/>
+      <c r="Y19" s="8">
+        <v>-10</v>
+      </c>
       <c r="Z19" s="16">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3109,8 +3145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="225" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScale="186" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Успеваемость_С-ИП-21-1.xlsx
+++ b/Успеваемость_С-ИП-21-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/information-systems-testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8E5489-F261-964F-95F3-42C390091C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6201900-B614-0647-AC43-F99AA29FA475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -1558,7 +1558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="150" workbookViewId="0">
       <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="X10" sqref="X10"/>
     </sheetView>
@@ -3145,8 +3145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="186" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="186" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3347,7 +3347,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="21">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21">
@@ -3356,7 +3356,7 @@
       <c r="I7" s="21"/>
       <c r="J7" s="19">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3695,7 +3695,9 @@
       <c r="D19" s="34">
         <v>16</v>
       </c>
-      <c r="E19" s="35"/>
+      <c r="E19" s="35">
+        <v>8</v>
+      </c>
       <c r="F19" s="34">
         <v>16</v>
       </c>
@@ -3706,7 +3708,7 @@
       <c r="I19" s="35"/>
       <c r="J19" s="32">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
